--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8a6a7c185fb1dd3/Personal/Games/TMF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13472" documentId="13_ncr:1_{DE634A77-7F02-4205-BEB0-20A9591251C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FE754A5-B768-4E0D-B8D1-D7976B5F0631}"/>
+  <xr:revisionPtr revIDLastSave="13801" documentId="13_ncr:1_{DE634A77-7F02-4205-BEB0-20A9591251C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7420C7BC-5E21-4C46-A8E5-F664443580A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="restart_Mar_2025" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId6"/>
+    <pivotCache cacheId="41" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -804,6 +804,12 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -822,12 +828,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1380,6 +1380,15 @@
                 <c:pt idx="125">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1766,6 +1775,15 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0.62698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.62992125984251968</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.62015503875968991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,6 +2219,15 @@
                 <c:pt idx="125">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2587,6 +2614,15 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3176,100 +3212,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.6511627906976744E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.6511627906976744E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>6.2015503875968991E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3492063492063489E-2</c:v>
+                  <c:v>6.2015503875968991E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3492063492063489E-2</c:v>
+                  <c:v>6.9767441860465115E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11904761904761904</c:v>
+                  <c:v>0.11627906976744186</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>3.1007751937984496E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>3.1007751937984496E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.3492063492063489E-2</c:v>
+                  <c:v>6.2015503875968991E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -3284,7 +3320,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -3875,127 +3911,127 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.6511627906976744E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>6.9767441860465115E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.3023255813953487E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10317460317460317</c:v>
+                  <c:v>0.10077519379844961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15079365079365079</c:v>
+                  <c:v>0.14728682170542634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.18604651162790697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23809523809523808</c:v>
+                  <c:v>0.23255813953488372</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29365079365079361</c:v>
+                  <c:v>0.2868217054263566</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34920634920634919</c:v>
+                  <c:v>0.34883720930232559</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41269841269841268</c:v>
+                  <c:v>0.41085271317829458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46825396825396826</c:v>
+                  <c:v>0.46511627906976744</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.49206349206349209</c:v>
+                  <c:v>0.48837209302325579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.55813953488372092</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67460317460317465</c:v>
+                  <c:v>0.67441860465116277</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.70634920634920639</c:v>
+                  <c:v>0.70542635658914721</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.73809523809523814</c:v>
+                  <c:v>0.73643410852713176</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.80158730158730163</c:v>
+                  <c:v>0.79844961240310075</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.82539682539682546</c:v>
+                  <c:v>0.82170542635658916</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86507936507936511</c:v>
+                  <c:v>0.86046511627906974</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88888888888888895</c:v>
+                  <c:v>0.88372093023255816</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.89682539682539686</c:v>
+                  <c:v>0.89147286821705429</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90476190476190477</c:v>
+                  <c:v>0.89922480620155043</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9285714285714286</c:v>
+                  <c:v>0.92248062015503884</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.93650793650793651</c:v>
+                  <c:v>0.93023255813953498</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>0.94573643410852726</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.96825396825396814</c:v>
+                  <c:v>0.96124031007751953</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96825396825396814</c:v>
+                  <c:v>0.96124031007751953</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.98412698412698396</c:v>
+                  <c:v>0.97674418604651181</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.98449612403100795</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.98449612403100795</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>0.99224806201550408</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>0.99224806201550408</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>0.99224806201550408</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>0.99224806201550408</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>0.99224806201550408</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4799,6 +4835,15 @@
                 <c:pt idx="125">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5185,6 +5230,15 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5887,6 +5941,15 @@
                 <c:pt idx="125">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6273,6 +6336,15 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6720,6 +6792,15 @@
                 <c:pt idx="125">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7106,6 +7187,15 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7845,6 +7935,15 @@
                 <c:pt idx="125">
                   <c:v>126</c:v>
                 </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8231,6 +8330,15 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8697,7 +8805,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>13</c:v>
@@ -8724,7 +8832,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1</c:v>
@@ -8904,7 +9012,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13</c:v>
@@ -8919,7 +9027,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6</c:v>
@@ -8958,7 +9066,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -9427,67 +9535,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9365079365079361E-2</c:v>
+                  <c:v>7.7519379844961239E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.3023255813953487E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10317460317460317</c:v>
+                  <c:v>0.10077519379844961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>8.5271317829457363E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10317460317460317</c:v>
+                  <c:v>0.10077519379844961</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.3023255813953487E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>6.9767441860465115E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3492063492063489E-2</c:v>
+                  <c:v>6.2015503875968991E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -9670,58 +9778,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9365079365079361E-2</c:v>
+                  <c:v>8.5271317829457363E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10317460317460317</c:v>
+                  <c:v>0.10077519379844961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11904761904761904</c:v>
+                  <c:v>0.11627906976744186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11904761904761904</c:v>
+                  <c:v>0.11627906976744186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10852713178294573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>0.10077519379844961</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.6511627906976744E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>3.1007751937984496E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -9730,7 +9838,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -9739,7 +9847,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -10261,76 +10369,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9365079365079361E-2</c:v>
+                  <c:v>7.7519379844961239E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.3023255813953487E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15079365079365079</c:v>
+                  <c:v>0.14728682170542634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23015873015873015</c:v>
+                  <c:v>0.22480620155038758</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32539682539682535</c:v>
+                  <c:v>0.31782945736434109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42857142857142849</c:v>
+                  <c:v>0.41860465116279072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49999999999999989</c:v>
+                  <c:v>0.50387596899224807</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60317460317460303</c:v>
+                  <c:v>0.60465116279069764</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65873015873015861</c:v>
+                  <c:v>0.65891472868217049</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75396825396825384</c:v>
+                  <c:v>0.75193798449612403</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80952380952380942</c:v>
+                  <c:v>0.80620155038759689</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88095238095238082</c:v>
+                  <c:v>0.87596899224806202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94444444444444431</c:v>
+                  <c:v>0.93798449612403101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96825396825396814</c:v>
+                  <c:v>0.96124031007751942</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96825396825396814</c:v>
+                  <c:v>0.96124031007751942</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97619047619047605</c:v>
+                  <c:v>0.9767441860465117</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98412698412698396</c:v>
+                  <c:v>0.98449612403100784</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.98412698412698396</c:v>
+                  <c:v>0.98449612403100784</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10540,73 +10648,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.3023255813953487E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15079365079365079</c:v>
+                  <c:v>0.14728682170542634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23015873015873015</c:v>
+                  <c:v>0.23255813953488369</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45238095238095233</c:v>
+                  <c:v>0.44961240310077516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.56589147286821706</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.68253968253968256</c:v>
+                  <c:v>0.67441860465116277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0.77519379844961234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.82539682539682535</c:v>
+                  <c:v>0.82170542635658905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.865079365079365</c:v>
+                  <c:v>0.86046511627906963</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92063492063492058</c:v>
+                  <c:v>0.91472868217054248</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93650793650793651</c:v>
+                  <c:v>0.93023255813953476</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96825396825396826</c:v>
+                  <c:v>0.96124031007751931</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98412698412698418</c:v>
+                  <c:v>0.97674418604651159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99206349206349209</c:v>
+                  <c:v>0.98449612403100772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99206349206349209</c:v>
+                  <c:v>0.98449612403100772</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99206349206349209</c:v>
+                  <c:v>0.98449612403100772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0.99224806201550386</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0.99224806201550386</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0.99224806201550386</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1</c:v>
@@ -11229,133 +11337,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>6.9767441860465115E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3492063492063489E-2</c:v>
+                  <c:v>6.2015503875968991E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>6.9767441860465115E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>6.2015503875968991E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>5.4263565891472867E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>3.1007751937984496E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>3.1007751937984496E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.6511627906976744E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.968253968253968E-2</c:v>
+                  <c:v>3.875968992248062E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1746031746031744E-2</c:v>
+                  <c:v>3.1007751937984496E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3809523809523808E-2</c:v>
+                  <c:v>2.3255813953488372E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -11367,16 +11475,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.5873015873015872E-2</c:v>
+                  <c:v>1.5503875968992248E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -11412,7 +11520,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.9365079365079361E-3</c:v>
+                  <c:v>7.7519379844961239E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -12042,202 +12150,202 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>6.9767441860465115E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.3023255813953487E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15873015873015872</c:v>
+                  <c:v>0.15503875968992248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23015873015873015</c:v>
+                  <c:v>0.22480620155038761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.2868217054263566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32539682539682535</c:v>
+                  <c:v>0.32558139534883723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34920634920634919</c:v>
+                  <c:v>0.34883720930232559</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40476190476190477</c:v>
+                  <c:v>0.40310077519379844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42063492063492064</c:v>
+                  <c:v>0.41860465116279066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45238095238095238</c:v>
+                  <c:v>0.44961240310077516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49206349206349209</c:v>
+                  <c:v>0.48837209302325579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51587301587301593</c:v>
+                  <c:v>0.51162790697674421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51587301587301593</c:v>
+                  <c:v>0.51162790697674421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52380952380952384</c:v>
+                  <c:v>0.51937984496124034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54761904761904767</c:v>
+                  <c:v>0.54263565891472876</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.56349206349206349</c:v>
+                  <c:v>0.56589147286821717</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59523809523809523</c:v>
+                  <c:v>0.59689922480620172</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.64285714285714279</c:v>
+                  <c:v>0.64341085271317844</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6507936507936507</c:v>
+                  <c:v>0.65116279069767458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.67460317460317454</c:v>
+                  <c:v>0.67441860465116299</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.69047619047619047</c:v>
+                  <c:v>0.6976744186046514</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.73015873015873012</c:v>
+                  <c:v>0.73643410852713198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.73809523809523803</c:v>
+                  <c:v>0.74418604651162812</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76190476190476186</c:v>
+                  <c:v>0.76744186046511653</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.79365079365079361</c:v>
+                  <c:v>0.79844961240310108</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.80158730158730152</c:v>
+                  <c:v>0.80620155038759722</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.80952380952380942</c:v>
+                  <c:v>0.81395348837209336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.81746031746031733</c:v>
+                  <c:v>0.8217054263565895</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.84126984126984117</c:v>
+                  <c:v>0.84496124031007791</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.84920634920634908</c:v>
+                  <c:v>0.85271317829457405</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.84920634920634908</c:v>
+                  <c:v>0.85271317829457405</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.87301587301587291</c:v>
+                  <c:v>0.87596899224806246</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.89147286821705474</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91269841269841268</c:v>
+                  <c:v>0.91472868217054315</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91269841269841268</c:v>
+                  <c:v>0.91472868217054315</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92063492063492058</c:v>
+                  <c:v>0.92248062015503929</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92857142857142849</c:v>
+                  <c:v>0.93023255813953543</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9365079365079364</c:v>
+                  <c:v>0.93798449612403156</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.94444444444444431</c:v>
+                  <c:v>0.9457364341085277</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.94444444444444431</c:v>
+                  <c:v>0.9457364341085277</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.95238095238095222</c:v>
+                  <c:v>0.95348837209302384</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.95238095238095222</c:v>
+                  <c:v>0.95348837209302384</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.96031746031746013</c:v>
+                  <c:v>0.96124031007751998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.96031746031746013</c:v>
+                  <c:v>0.96124031007751998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.96031746031746013</c:v>
+                  <c:v>0.96124031007751998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.96031746031746013</c:v>
+                  <c:v>0.96124031007751998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.97619047619047605</c:v>
+                  <c:v>0.97674418604651225</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.97619047619047605</c:v>
+                  <c:v>0.97674418604651225</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.98412698412698396</c:v>
+                  <c:v>0.98449612403100839</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.99206349206349187</c:v>
+                  <c:v>0.99224806201550453</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.99999999999999978</c:v>
+                  <c:v>1.0000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21473,7 +21581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E406358A-409A-43B9-8A7A-A4F40296372A}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E406358A-409A-43B9-8A7A-A4F40296372A}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AA30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -22083,8 +22191,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE9E5083-014D-451E-889D-16E94902F766}" name="Table1" displayName="Table1" ref="A1:C9" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{65D88E98-3611-4C57-86D3-893E2A7D5784}" name="Column1" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{6499A51F-3875-4832-8848-8EAE69C25D35}" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{388BB7CE-B501-495D-A257-E664D345E83C}" name="Column3" totalsRowFunction="count" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6499A51F-3875-4832-8848-8EAE69C25D35}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{388BB7CE-B501-495D-A257-E664D345E83C}" name="Column3" totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22356,11 +22464,11 @@
   <dimension ref="A1:AK1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
       <selection pane="topRight" activeCell="B22" sqref="B22"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
-      <selection pane="bottomRight" sqref="A1:F1"/>
+      <selection pane="bottomRight" activeCell="P132" sqref="P132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22735,7 +22843,7 @@
       </c>
       <c r="AG4" s="2">
         <f>COUNTIF(B$2:B$10000,AF4)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH4" s="20">
         <f>COUNTIFS($B$2:$B$10000,AF4,$J$2:$J$10000,"SB")</f>
@@ -22743,15 +22851,15 @@
       </c>
       <c r="AI4" s="28">
         <f>AH4/AG4</f>
-        <v>0.55319148936170215</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="AJ4" s="21">
         <f>COUNTIFS($B$2:$B$10000,AF4,$J$2:$J$10000,"AV")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK4" s="29">
         <f>AJ4/AG4</f>
-        <v>0.44680851063829785</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -22860,15 +22968,15 @@
       </c>
       <c r="AG5" s="2">
         <f t="shared" ref="AG5:AG6" si="13">COUNTIF(B$2:B$10000,AF5)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AH5" s="20">
         <f t="shared" ref="AH5:AH6" si="14">COUNTIFS($B$2:$B$10000,AF5,$J$2:$J$10000,"SB")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI5" s="28">
         <f>AH5/AG5</f>
-        <v>0.67500000000000004</v>
+        <v>0.68292682926829273</v>
       </c>
       <c r="AJ5" s="21">
         <f t="shared" ref="AJ5:AJ6" si="15">COUNTIFS($B$2:$B$10000,AF5,$J$2:$J$10000,"AV")</f>
@@ -22876,7 +22984,7 @@
       </c>
       <c r="AK5" s="29">
         <f t="shared" ref="AK5:AK7" si="16">AJ5/AG5</f>
-        <v>0.32500000000000001</v>
+        <v>0.31707317073170732</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -22985,7 +23093,7 @@
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="13"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH6" s="20">
         <f t="shared" si="14"/>
@@ -22993,15 +23101,15 @@
       </c>
       <c r="AI6" s="28">
         <f>AH6/AG6</f>
-        <v>0.66666666666666663</v>
+        <v>0.65</v>
       </c>
       <c r="AJ6" s="21">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK6" s="29">
         <f t="shared" si="16"/>
-        <v>0.33333333333333331</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -23110,23 +23218,23 @@
       </c>
       <c r="AG7" s="25">
         <f>SUM(AG4:AG6)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AH7" s="26">
         <f>SUM(AH4:AH6)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" s="30">
         <f>AH7/AG7</f>
-        <v>0.62698412698412698</v>
+        <v>0.62015503875968991</v>
       </c>
       <c r="AJ7" s="27">
         <f>SUM(AJ4:AJ6)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AK7" s="31">
         <f t="shared" si="16"/>
-        <v>0.37301587301587302</v>
+        <v>0.37984496124031009</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -23530,7 +23638,7 @@
       </c>
       <c r="X11" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="18">
         <f t="shared" si="7"/>
@@ -23546,11 +23654,11 @@
       </c>
       <c r="AB11" s="35">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC11" s="37">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AD11" s="35">
         <f t="shared" si="12"/>
@@ -23565,11 +23673,11 @@
       </c>
       <c r="AI11">
         <f>MAX(F2:F10000)</f>
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AJ11" s="38">
         <f>MAX(G2:G10000)</f>
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="AK11" s="38">
         <f>MAX(I2:I10000)</f>
@@ -23805,19 +23913,19 @@
       </c>
       <c r="AH13" s="33">
         <f>AVERAGE(E2:E10000)</f>
-        <v>111.34126984126983</v>
+        <v>111.6046511627907</v>
       </c>
       <c r="AI13" s="33">
         <f>AVERAGE(F2:F10000)</f>
-        <v>103.9047619047619</v>
+        <v>104.41860465116279</v>
       </c>
       <c r="AJ13" s="33">
         <f>AVERAGE(G2:G10000)</f>
-        <v>215.24603174603175</v>
+        <v>216.02325581395348</v>
       </c>
       <c r="AK13" s="33">
         <f>AVERAGE(I2:I10000)</f>
-        <v>15.928571428571429</v>
+        <v>15.883720930232558</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -23927,7 +24035,7 @@
       </c>
       <c r="AH14">
         <f>MEDIAN(E2:E10000)</f>
-        <v>110.5</v>
+        <v>110</v>
       </c>
       <c r="AI14">
         <f>MEDIAN(F2:F10000)</f>
@@ -23935,7 +24043,7 @@
       </c>
       <c r="AJ14">
         <f>MEDIAN(G2:G10000)</f>
-        <v>217.5</v>
+        <v>218</v>
       </c>
       <c r="AK14">
         <f>MEDIAN(I2:I10000)</f>
@@ -24265,11 +24373,11 @@
       </c>
       <c r="AH17" s="33">
         <f>SUMIFS($I$2:$I$10000,$J$2:$J$10000,"SB")/AH7</f>
-        <v>18.632911392405063</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AI17" s="33">
         <f>SUMIFS($I$2:$I$10000,$J$2:$J$10000,"AV")/AJ7</f>
-        <v>11.382978723404255</v>
+        <v>11.448979591836734</v>
       </c>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
@@ -24358,7 +24466,7 @@
       </c>
       <c r="Z18" s="21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA18" s="19">
         <f t="shared" si="9"/>
@@ -24366,11 +24474,11 @@
       </c>
       <c r="AB18" s="35">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC18" s="37">
         <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AD18" s="35">
         <f t="shared" si="12"/>
@@ -24381,11 +24489,11 @@
       </c>
       <c r="AH18" s="33">
         <f>SUMIFS($E$2:$E$10000,$J$2:$J$10000,"SB")/AH7</f>
-        <v>117.0253164556962</v>
+        <v>116.8875</v>
       </c>
       <c r="AI18" s="33">
         <f>SUMIFS($F$2:$F$10000,$J$2:$J$10000,"AV")/AJ7</f>
-        <v>113.17021276595744</v>
+        <v>114.42857142857143</v>
       </c>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
@@ -24497,11 +24605,11 @@
       </c>
       <c r="AH19" s="4">
         <f>SUMIFS($E$2:$E$10000,$J$2:$J$10000,"AV")/AJ7</f>
-        <v>101.78723404255319</v>
+        <v>102.9795918367347</v>
       </c>
       <c r="AI19" s="4">
         <f>SUMIFS($F$2:$F$10000,$J$2:$J$10000,"SB")/AH7</f>
-        <v>98.392405063291136</v>
+        <v>98.287499999999994</v>
       </c>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
@@ -24792,11 +24900,11 @@
       </c>
       <c r="X22" s="20">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y22" s="18">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Z22" s="21">
         <f t="shared" si="8"/>
@@ -24808,11 +24916,11 @@
       </c>
       <c r="AB22" s="35">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC22" s="37">
         <f t="shared" si="11"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AD22" s="35">
         <f t="shared" si="12"/>
@@ -24823,7 +24931,7 @@
       </c>
       <c r="AH22">
         <f>AG7/(MAX(A2:A10000)-A2)</f>
-        <v>1.2857142857142858</v>
+        <v>1.303030303030303</v>
       </c>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
@@ -25122,23 +25230,23 @@
       </c>
       <c r="Z25" s="21">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA25" s="19">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AB25" s="35">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC25" s="37">
         <f t="shared" si="11"/>
-        <v>0.56521739130434778</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="AD25" s="35">
         <f t="shared" si="12"/>
-        <v>12.999999999999998</v>
+        <v>14</v>
       </c>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
@@ -25440,7 +25548,7 @@
       </c>
       <c r="Z28" s="21">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA28" s="19">
         <f t="shared" si="9"/>
@@ -25448,15 +25556,15 @@
       </c>
       <c r="AB28" s="35">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC28" s="37">
         <f t="shared" si="11"/>
-        <v>0.88888888888888884</v>
+        <v>0.9</v>
       </c>
       <c r="AD28" s="35">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -25535,11 +25643,11 @@
       </c>
       <c r="X29" s="20">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" si="7"/>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Z29" s="21">
         <f t="shared" si="8"/>
@@ -25551,15 +25659,15 @@
       </c>
       <c r="AB29" s="35">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC29" s="37">
         <f t="shared" si="11"/>
-        <v>0.55555555555555558</v>
+        <v>0.6</v>
       </c>
       <c r="AD29" s="35">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
@@ -25885,16 +25993,16 @@
       </c>
       <c r="X33" s="2">
         <f>SUM(X4:X30)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Z33" s="2">
         <f>SUM(Z4:Z30)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AD33" s="2">
         <f>SUM(AD4:AD30)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -31267,7 +31375,7 @@
         <v>AV</v>
       </c>
       <c r="K108" s="10">
-        <f t="shared" ref="K108:K127" si="137">K107+1</f>
+        <f t="shared" ref="K108:K130" si="137">K107+1</f>
         <v>107</v>
       </c>
       <c r="L108" s="10">
@@ -32672,63 +32780,222 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="13"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
-      <c r="Q128" s="10"/>
+      <c r="A128" s="6">
+        <v>45838</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="7">
+        <v>106</v>
+      </c>
+      <c r="F128" s="7">
+        <v>90</v>
+      </c>
+      <c r="G128" s="5">
+        <f t="shared" ref="G128:G130" si="148">E128+F128</f>
+        <v>196</v>
+      </c>
+      <c r="H128" s="5">
+        <f t="shared" ref="H128:H130" si="149">E128-F128</f>
+        <v>16</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" ref="I128:I130" si="150">ABS(H128)</f>
+        <v>16</v>
+      </c>
+      <c r="J128" s="10" t="str">
+        <f t="shared" ref="J128:J130" si="151">IF(E128=F128,"T",IF(E128&gt;F128,"SB","AV"))</f>
+        <v>SB</v>
+      </c>
+      <c r="K128" s="10">
+        <f t="shared" si="137"/>
+        <v>127</v>
+      </c>
+      <c r="L128" s="10">
+        <f t="shared" ref="L128" si="152">IF(J128="SB",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M128" s="10">
+        <f>COUNTIF($J$2:J128,"SB")-COUNTIF($J$2:J128,"AV")</f>
+        <v>33</v>
+      </c>
+      <c r="N128" s="13">
+        <f>COUNTIF($J$2:J128,"SB")/K128</f>
+        <v>0.62992125984251968</v>
+      </c>
+      <c r="O128" s="10">
+        <f>SUM($E$2:E128)</f>
+        <v>14135</v>
+      </c>
+      <c r="P128" s="10">
+        <f>SUM($F$2:F128)</f>
+        <v>13182</v>
+      </c>
+      <c r="Q128" s="10">
+        <f t="shared" ref="Q128" si="153">O128-P128</f>
+        <v>953</v>
+      </c>
+      <c r="R128">
+        <f>AVERAGE($I$2:I128)</f>
+        <v>15.929133858267717</v>
+      </c>
+      <c r="S128">
+        <f>MEDIAN($I$2:I128)</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>45838</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="7">
+        <v>107</v>
+      </c>
+      <c r="F129" s="7">
+        <v>112</v>
+      </c>
+      <c r="G129" s="5">
+        <f t="shared" si="148"/>
+        <v>219</v>
+      </c>
+      <c r="H129" s="5">
+        <f t="shared" si="149"/>
+        <v>-5</v>
+      </c>
+      <c r="I129" s="5">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="J129" s="10" t="str">
+        <f t="shared" si="151"/>
+        <v>AV</v>
+      </c>
+      <c r="K129" s="10">
+        <f t="shared" si="137"/>
+        <v>128</v>
+      </c>
+      <c r="L129" s="10">
+        <f t="shared" ref="L129:L130" si="154">IF(J129="SB",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="10">
+        <f>COUNTIF($J$2:J129,"SB")-COUNTIF($J$2:J129,"AV")</f>
+        <v>32</v>
+      </c>
+      <c r="N129" s="13">
+        <f>COUNTIF($J$2:J129,"SB")/K129</f>
+        <v>0.625</v>
+      </c>
+      <c r="O129" s="10">
+        <f>SUM($E$2:E129)</f>
+        <v>14242</v>
+      </c>
+      <c r="P129" s="10">
+        <f>SUM($F$2:F129)</f>
+        <v>13294</v>
+      </c>
+      <c r="Q129" s="10">
+        <f t="shared" ref="Q129" si="155">O129-P129</f>
+        <v>948</v>
+      </c>
+      <c r="R129">
+        <f>AVERAGE($I$2:I129)</f>
+        <v>15.84375</v>
+      </c>
+      <c r="S129">
+        <f>MEDIAN($I$2:I129)</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="13"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
-      <c r="Q130" s="10"/>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>45838</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E130" s="7">
+        <v>155</v>
+      </c>
+      <c r="F130" s="7">
+        <v>176</v>
+      </c>
+      <c r="G130" s="5">
+        <f t="shared" si="148"/>
+        <v>331</v>
+      </c>
+      <c r="H130" s="5">
+        <f t="shared" si="149"/>
+        <v>-21</v>
+      </c>
+      <c r="I130" s="5">
+        <f t="shared" si="150"/>
+        <v>21</v>
+      </c>
+      <c r="J130" s="10" t="str">
+        <f t="shared" si="151"/>
+        <v>AV</v>
+      </c>
+      <c r="K130" s="10">
+        <f t="shared" si="137"/>
+        <v>129</v>
+      </c>
+      <c r="L130" s="10">
+        <f t="shared" ref="L130" si="156">IF(J130="SB",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="10">
+        <f>COUNTIF($J$2:J130,"SB")-COUNTIF($J$2:J130,"AV")</f>
+        <v>31</v>
+      </c>
+      <c r="N130" s="13">
+        <f>COUNTIF($J$2:J130,"SB")/K130</f>
+        <v>0.62015503875968991</v>
+      </c>
+      <c r="O130" s="10">
+        <f>SUM($E$2:E130)</f>
+        <v>14397</v>
+      </c>
+      <c r="P130" s="10">
+        <f>SUM($F$2:F130)</f>
+        <v>13470</v>
+      </c>
+      <c r="Q130" s="10">
+        <f t="shared" ref="Q130" si="157">O130-P130</f>
+        <v>927</v>
+      </c>
+      <c r="R130">
+        <f>AVERAGE($I$2:I130)</f>
+        <v>15.883720930232558</v>
+      </c>
+      <c r="S130">
+        <f>MEDIAN($I$2:I130)</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -32747,7 +33014,7 @@
       <c r="P131" s="10"/>
       <c r="Q131" s="10"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -32766,7 +33033,7 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -34143,7 +34410,7 @@
   <dimension ref="A2:AH167"/>
   <sheetViews>
     <sheetView topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34295,11 +34562,11 @@
       </c>
       <c r="T4">
         <f>S4/SUM($S$4:$S$69)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="U4">
         <f>SUM(T$4:T4)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="W4">
         <v>120</v>
@@ -34383,11 +34650,11 @@
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T68" si="3">S5/SUM($S$4:$S$69)</f>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U5">
         <f>SUM(T$4:T5)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="W5">
         <f>W4+5</f>
@@ -34472,11 +34739,11 @@
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>6.3492063492063489E-2</v>
+        <v>6.2015503875968991E-2</v>
       </c>
       <c r="U6">
         <f>SUM(T$4:T6)</f>
-        <v>0.15873015873015872</v>
+        <v>0.15503875968992248</v>
       </c>
       <c r="W6">
         <f t="shared" ref="W6:W50" si="8">W5+5</f>
@@ -34502,7 +34769,7 @@
       </c>
       <c r="AF6">
         <f>MAX(A4:A1002)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -34546,7 +34813,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="N7">
         <f>SUM($L$4:L7)</f>
@@ -34554,7 +34821,7 @@
       </c>
       <c r="O7">
         <f>SUM($M$4:M7)</f>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="Q7">
         <f>Q6+1</f>
@@ -34569,11 +34836,11 @@
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
-        <v>7.1428571428571425E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="U7">
         <f>SUM(T$4:T7)</f>
-        <v>0.23015873015873015</v>
+        <v>0.22480620155038761</v>
       </c>
       <c r="W7">
         <f t="shared" si="8"/>
@@ -34636,7 +34903,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="N8">
         <f>SUM($L$4:L8)</f>
@@ -34644,7 +34911,7 @@
       </c>
       <c r="O8">
         <f>SUM($M$4:M8)</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="Q8">
         <f t="shared" ref="Q8:Q51" si="10">Q7+1</f>
@@ -34655,15 +34922,15 @@
         <v>4.5</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>6.2015503875968991E-2</v>
       </c>
       <c r="U8">
         <f>SUM(T$4:T8)</f>
-        <v>0.2857142857142857</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="W8">
         <f t="shared" si="8"/>
@@ -34728,19 +34995,19 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="N9">
         <f>SUM($L$4:L9)</f>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="O9">
         <f>SUM($M$4:M9)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="10"/>
@@ -34755,11 +35022,11 @@
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="U9">
         <f>SUM(T$4:T9)</f>
-        <v>0.32539682539682535</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="W9">
         <f t="shared" si="8"/>
@@ -34789,7 +35056,7 @@
       </c>
       <c r="AG9">
         <f>restart_Mar_2025!AI11</f>
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -34829,19 +35096,19 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="N10">
         <f>SUM($L$4:L10)</f>
-        <v>7.9365079365079361E-2</v>
+        <v>7.7519379844961239E-2</v>
       </c>
       <c r="O10">
         <f>SUM($M$4:M10)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="Q10">
         <f t="shared" si="10"/>
@@ -34856,11 +35123,11 @@
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U10">
         <f>SUM(T$4:T10)</f>
-        <v>0.34920634920634919</v>
+        <v>0.34883720930232559</v>
       </c>
       <c r="W10">
         <f t="shared" si="8"/>
@@ -34875,11 +35142,11 @@
       </c>
       <c r="Z10">
         <f t="shared" si="5"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="AA10">
         <f>SUM(Z$4:Z10)</f>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>74</v>
@@ -34930,19 +35197,19 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="N11">
         <f>SUM($L$4:L11)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="O11">
         <f>SUM($M$4:M11)</f>
-        <v>0.15079365079365079</v>
+        <v>0.14728682170542634</v>
       </c>
       <c r="Q11">
         <f t="shared" si="10"/>
@@ -34957,11 +35224,11 @@
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="U11">
         <f>SUM(T$4:T11)</f>
-        <v>0.40476190476190477</v>
+        <v>0.40310077519379844</v>
       </c>
       <c r="W11">
         <f t="shared" si="8"/>
@@ -34976,22 +35243,22 @@
       </c>
       <c r="Z11">
         <f t="shared" si="5"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA11">
         <f>SUM(Z$4:Z11)</f>
-        <v>4.7619047619047616E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AF11">
         <f>restart_Mar_2025!AH13</f>
-        <v>111.34126984126983</v>
+        <v>111.6046511627907</v>
       </c>
       <c r="AG11">
         <f>restart_Mar_2025!AI13</f>
-        <v>103.9047619047619</v>
+        <v>104.41860465116279</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -35023,7 +35290,7 @@
         <v>7</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
@@ -35031,19 +35298,19 @@
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>7.9365079365079361E-2</v>
+        <v>8.5271317829457363E-2</v>
       </c>
       <c r="N12">
         <f>SUM($L$4:L12)</f>
-        <v>0.15079365079365079</v>
+        <v>0.14728682170542634</v>
       </c>
       <c r="O12">
         <f>SUM($M$4:M12)</f>
-        <v>0.23015873015873015</v>
+        <v>0.23255813953488369</v>
       </c>
       <c r="Q12">
         <f t="shared" si="10"/>
@@ -35058,11 +35325,11 @@
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="U12">
         <f>SUM(T$4:T12)</f>
-        <v>0.42063492063492064</v>
+        <v>0.41860465116279066</v>
       </c>
       <c r="W12">
         <f t="shared" si="8"/>
@@ -35077,18 +35344,18 @@
       </c>
       <c r="Z12">
         <f t="shared" si="5"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="AA12">
         <f>SUM(Z$4:Z12)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="AE12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AF12">
         <f>restart_Mar_2025!AH14</f>
-        <v>110.5</v>
+        <v>110</v>
       </c>
       <c r="AG12">
         <f>restart_Mar_2025!AI14</f>
@@ -35132,15 +35399,15 @@
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>7.9365079365079361E-2</v>
+        <v>7.7519379844961239E-2</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>0.10317460317460317</v>
+        <v>0.10077519379844961</v>
       </c>
       <c r="N13">
         <f>SUM($L$4:L13)</f>
-        <v>0.23015873015873015</v>
+        <v>0.22480620155038758</v>
       </c>
       <c r="O13">
         <f>SUM($M$4:M13)</f>
@@ -35159,11 +35426,11 @@
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1007751937984496E-2</v>
       </c>
       <c r="U13">
         <f>SUM(T$4:T13)</f>
-        <v>0.45238095238095238</v>
+        <v>0.44961240310077516</v>
       </c>
       <c r="W13">
         <f t="shared" si="8"/>
@@ -35178,11 +35445,11 @@
       </c>
       <c r="Z13">
         <f t="shared" si="5"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="AA13">
         <f>SUM(Z$4:Z13)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -35222,19 +35489,19 @@
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>9.5238095238095233E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>0.11904761904761904</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="N14">
         <f>SUM($L$4:L14)</f>
-        <v>0.32539682539682535</v>
+        <v>0.31782945736434109</v>
       </c>
       <c r="O14">
         <f>SUM($M$4:M14)</f>
-        <v>0.45238095238095233</v>
+        <v>0.44961240310077516</v>
       </c>
       <c r="Q14">
         <f t="shared" si="10"/>
@@ -35249,11 +35516,11 @@
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="U14">
         <f>SUM(T$4:T14)</f>
-        <v>0.49206349206349209</v>
+        <v>0.48837209302325579</v>
       </c>
       <c r="W14">
         <f t="shared" si="8"/>
@@ -35268,11 +35535,11 @@
       </c>
       <c r="Z14">
         <f t="shared" si="5"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA14">
         <f>SUM(Z$4:Z14)</f>
-        <v>0.10317460317460317</v>
+        <v>0.10077519379844961</v>
       </c>
       <c r="AF14" t="s">
         <v>79</v>
@@ -35321,19 +35588,19 @@
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>0.10317460317460317</v>
+        <v>0.10077519379844961</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.11904761904761904</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="N15">
         <f>SUM($L$4:L15)</f>
-        <v>0.42857142857142849</v>
+        <v>0.41860465116279072</v>
       </c>
       <c r="O15">
         <f>SUM($M$4:M15)</f>
-        <v>0.5714285714285714</v>
+        <v>0.56589147286821706</v>
       </c>
       <c r="Q15">
         <f t="shared" si="10"/>
@@ -35348,11 +35615,11 @@
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U15">
         <f>SUM(T$4:T15)</f>
-        <v>0.51587301587301593</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="W15">
         <f t="shared" si="8"/>
@@ -35367,11 +35634,11 @@
       </c>
       <c r="Z15">
         <f t="shared" si="5"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="AA15">
         <f>SUM(Z$4:Z15)</f>
-        <v>0.15079365079365079</v>
+        <v>0.14728682170542634</v>
       </c>
       <c r="AE15" s="1" t="s">
         <v>78</v>
@@ -35382,11 +35649,11 @@
       </c>
       <c r="AG15">
         <f>MAX(AF9:AG9)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH15">
         <f>AG15-AF15</f>
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -35415,7 +35682,7 @@
         <v>105</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -35426,19 +35693,19 @@
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>7.1428571428571425E-2</v>
+        <v>8.5271317829457363E-2</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.10852713178294573</v>
       </c>
       <c r="N16">
         <f>SUM($L$4:L16)</f>
-        <v>0.49999999999999989</v>
+        <v>0.50387596899224807</v>
       </c>
       <c r="O16">
         <f>SUM($M$4:M16)</f>
-        <v>0.68253968253968256</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="Q16">
         <f t="shared" si="10"/>
@@ -35457,7 +35724,7 @@
       </c>
       <c r="U16">
         <f>SUM(T$4:T16)</f>
-        <v>0.51587301587301593</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="W16">
         <f t="shared" si="8"/>
@@ -35472,11 +35739,11 @@
       </c>
       <c r="Z16">
         <f t="shared" si="5"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="AA16">
         <f>SUM(Z$4:Z16)</f>
-        <v>0.19047619047619047</v>
+        <v>0.18604651162790697</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -35508,7 +35775,7 @@
         <v>13</v>
       </c>
       <c r="I17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
@@ -35516,19 +35783,19 @@
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>0.10317460317460317</v>
+        <v>0.10077519379844961</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.10077519379844961</v>
       </c>
       <c r="N17">
         <f>SUM($L$4:L17)</f>
-        <v>0.60317460317460303</v>
+        <v>0.60465116279069764</v>
       </c>
       <c r="O17">
         <f>SUM($M$4:M17)</f>
-        <v>0.77777777777777779</v>
+        <v>0.77519379844961234</v>
       </c>
       <c r="Q17">
         <f t="shared" si="10"/>
@@ -35543,11 +35810,11 @@
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U17">
         <f>SUM(T$4:T17)</f>
-        <v>0.52380952380952384</v>
+        <v>0.51937984496124034</v>
       </c>
       <c r="W17">
         <f t="shared" si="8"/>
@@ -35562,11 +35829,11 @@
       </c>
       <c r="Z17">
         <f t="shared" si="5"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="AA17">
         <f>SUM(Z$4:Z17)</f>
-        <v>0.23809523809523808</v>
+        <v>0.23255813953488372</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -35606,19 +35873,19 @@
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="N18">
         <f>SUM($L$4:L18)</f>
-        <v>0.65873015873015861</v>
+        <v>0.65891472868217049</v>
       </c>
       <c r="O18">
         <f>SUM($M$4:M18)</f>
-        <v>0.82539682539682535</v>
+        <v>0.82170542635658905</v>
       </c>
       <c r="Q18">
         <f t="shared" si="10"/>
@@ -35633,11 +35900,11 @@
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U18">
         <f>SUM(T$4:T18)</f>
-        <v>0.54761904761904767</v>
+        <v>0.54263565891472876</v>
       </c>
       <c r="W18">
         <f t="shared" si="8"/>
@@ -35652,11 +35919,11 @@
       </c>
       <c r="Z18">
         <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="AA18">
         <f>SUM(Z$4:Z18)</f>
-        <v>0.29365079365079361</v>
+        <v>0.2868217054263566</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -35696,19 +35963,19 @@
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>9.5238095238095233E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="N19">
         <f>SUM($L$4:L19)</f>
-        <v>0.75396825396825384</v>
+        <v>0.75193798449612403</v>
       </c>
       <c r="O19">
         <f>SUM($M$4:M19)</f>
-        <v>0.865079365079365</v>
+        <v>0.86046511627906963</v>
       </c>
       <c r="Q19">
         <f t="shared" si="10"/>
@@ -35719,15 +35986,15 @@
         <v>15.5</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
-        <v>1.5873015873015872E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U19">
         <f>SUM(T$4:T19)</f>
-        <v>0.56349206349206349</v>
+        <v>0.56589147286821717</v>
       </c>
       <c r="W19">
         <f t="shared" si="8"/>
@@ -35738,15 +36005,15 @@
         <v>197.5</v>
       </c>
       <c r="Y19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z19">
         <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <v>6.2015503875968991E-2</v>
       </c>
       <c r="AA19">
         <f>SUM(Z$4:Z19)</f>
-        <v>0.34920634920634919</v>
+        <v>0.34883720930232559</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -35786,19 +36053,19 @@
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="N20">
         <f>SUM($L$4:L20)</f>
-        <v>0.80952380952380942</v>
+        <v>0.80620155038759689</v>
       </c>
       <c r="O20">
         <f>SUM($M$4:M20)</f>
-        <v>0.92063492063492058</v>
+        <v>0.91472868217054248</v>
       </c>
       <c r="Q20">
         <f t="shared" si="10"/>
@@ -35813,11 +36080,11 @@
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1007751937984496E-2</v>
       </c>
       <c r="U20">
         <f>SUM(T$4:T20)</f>
-        <v>0.59523809523809523</v>
+        <v>0.59689922480620172</v>
       </c>
       <c r="W20">
         <f t="shared" si="8"/>
@@ -35832,11 +36099,11 @@
       </c>
       <c r="Z20">
         <f t="shared" si="5"/>
-        <v>6.3492063492063489E-2</v>
+        <v>6.2015503875968991E-2</v>
       </c>
       <c r="AA20">
         <f>SUM(Z$4:Z20)</f>
-        <v>0.41269841269841268</v>
+        <v>0.41085271317829458</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -35876,19 +36143,19 @@
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>7.1428571428571425E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="N21">
         <f>SUM($L$4:L21)</f>
-        <v>0.88095238095238082</v>
+        <v>0.87596899224806202</v>
       </c>
       <c r="O21">
         <f>SUM($M$4:M21)</f>
-        <v>0.93650793650793651</v>
+        <v>0.93023255813953476</v>
       </c>
       <c r="Q21">
         <f t="shared" si="10"/>
@@ -35903,11 +36170,11 @@
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="U21">
         <f>SUM(T$4:T21)</f>
-        <v>0.64285714285714279</v>
+        <v>0.64341085271317844</v>
       </c>
       <c r="W21">
         <f t="shared" si="8"/>
@@ -35922,11 +36189,11 @@
       </c>
       <c r="Z21">
         <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <v>5.4263565891472867E-2</v>
       </c>
       <c r="AA21">
         <f>SUM(Z$4:Z21)</f>
-        <v>0.46825396825396826</v>
+        <v>0.46511627906976744</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -35966,19 +36233,19 @@
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>6.3492063492063489E-2</v>
+        <v>6.2015503875968991E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1007751937984496E-2</v>
       </c>
       <c r="N22">
         <f>SUM($L$4:L22)</f>
-        <v>0.94444444444444431</v>
+        <v>0.93798449612403101</v>
       </c>
       <c r="O22">
         <f>SUM($M$4:M22)</f>
-        <v>0.96825396825396826</v>
+        <v>0.96124031007751931</v>
       </c>
       <c r="Q22">
         <f t="shared" si="10"/>
@@ -35993,11 +36260,11 @@
       </c>
       <c r="T22">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U22">
         <f>SUM(T$4:T22)</f>
-        <v>0.6507936507936507</v>
+        <v>0.65116279069767458</v>
       </c>
       <c r="W22">
         <f t="shared" si="8"/>
@@ -36012,11 +36279,11 @@
       </c>
       <c r="Z22">
         <f t="shared" si="5"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="AA22">
         <f>SUM(Z$4:Z22)</f>
-        <v>0.49206349206349209</v>
+        <v>0.48837209302325579</v>
       </c>
       <c r="AD22" s="45" t="s">
         <v>97</v>
@@ -36059,19 +36326,19 @@
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="N23">
         <f>SUM($L$4:L23)</f>
-        <v>0.96825396825396814</v>
+        <v>0.96124031007751942</v>
       </c>
       <c r="O23">
         <f>SUM($M$4:M23)</f>
-        <v>0.98412698412698418</v>
+        <v>0.97674418604651159</v>
       </c>
       <c r="Q23">
         <f t="shared" si="10"/>
@@ -36086,11 +36353,11 @@
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U23">
         <f>SUM(T$4:T23)</f>
-        <v>0.67460317460317454</v>
+        <v>0.67441860465116299</v>
       </c>
       <c r="W23">
         <f t="shared" si="8"/>
@@ -36101,15 +36368,15 @@
         <v>217.5</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z23">
         <f t="shared" si="5"/>
-        <v>6.3492063492063489E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="AA23">
         <f>SUM(Z$4:Z23)</f>
-        <v>0.55555555555555558</v>
+        <v>0.55813953488372092</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -36153,15 +36420,15 @@
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="N24">
         <f>SUM($L$4:L24)</f>
-        <v>0.96825396825396814</v>
+        <v>0.96124031007751942</v>
       </c>
       <c r="O24">
         <f>SUM($M$4:M24)</f>
-        <v>0.99206349206349209</v>
+        <v>0.98449612403100772</v>
       </c>
       <c r="Q24">
         <f t="shared" si="10"/>
@@ -36172,15 +36439,15 @@
         <v>20.5</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
-        <v>1.5873015873015872E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U24">
         <f>SUM(T$4:T24)</f>
-        <v>0.69047619047619047</v>
+        <v>0.6976744186046514</v>
       </c>
       <c r="W24">
         <f t="shared" si="8"/>
@@ -36195,11 +36462,11 @@
       </c>
       <c r="Z24">
         <f t="shared" si="5"/>
-        <v>0.11904761904761904</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="AA24">
         <f>SUM(Z$4:Z24)</f>
-        <v>0.67460317460317465</v>
+        <v>0.67441860465116277</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -36228,7 +36495,7 @@
         <v>150</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -36239,7 +36506,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>7.9365079365079361E-3</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
@@ -36247,11 +36514,11 @@
       </c>
       <c r="N25">
         <f>SUM($L$4:L25)</f>
-        <v>0.97619047619047605</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="O25">
         <f>SUM($M$4:M25)</f>
-        <v>0.99206349206349209</v>
+        <v>0.98449612403100772</v>
       </c>
       <c r="Q25">
         <f t="shared" si="10"/>
@@ -36266,11 +36533,11 @@
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="U25">
         <f>SUM(T$4:T25)</f>
-        <v>0.73015873015873012</v>
+        <v>0.73643410852713198</v>
       </c>
       <c r="W25">
         <f t="shared" si="8"/>
@@ -36285,11 +36552,11 @@
       </c>
       <c r="Z25">
         <f t="shared" si="5"/>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1007751937984496E-2</v>
       </c>
       <c r="AA25">
         <f>SUM(Z$4:Z25)</f>
-        <v>0.70634920634920639</v>
+        <v>0.70542635658914721</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -36329,7 +36596,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
@@ -36337,11 +36604,11 @@
       </c>
       <c r="N26">
         <f>SUM($L$4:L26)</f>
-        <v>0.98412698412698396</v>
+        <v>0.98449612403100784</v>
       </c>
       <c r="O26">
         <f>SUM($M$4:M26)</f>
-        <v>0.99206349206349209</v>
+        <v>0.98449612403100772</v>
       </c>
       <c r="Q26">
         <f t="shared" si="10"/>
@@ -36356,11 +36623,11 @@
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U26">
         <f>SUM(T$4:T26)</f>
-        <v>0.73809523809523803</v>
+        <v>0.74418604651162812</v>
       </c>
       <c r="W26">
         <f t="shared" si="8"/>
@@ -36375,11 +36642,11 @@
       </c>
       <c r="Z26">
         <f t="shared" si="5"/>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1007751937984496E-2</v>
       </c>
       <c r="AA26">
         <f>SUM(Z$4:Z26)</f>
-        <v>0.73809523809523814</v>
+        <v>0.73643410852713176</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -36423,15 +36690,15 @@
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="N27">
         <f>SUM($L$4:L27)</f>
-        <v>0.98412698412698396</v>
+        <v>0.98449612403100784</v>
       </c>
       <c r="O27">
         <f>SUM($M$4:M27)</f>
-        <v>1</v>
+        <v>0.99224806201550386</v>
       </c>
       <c r="Q27">
         <f t="shared" si="10"/>
@@ -36446,11 +36713,11 @@
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U27">
         <f>SUM(T$4:T27)</f>
-        <v>0.76190476190476186</v>
+        <v>0.76744186046511653</v>
       </c>
       <c r="W27">
         <f t="shared" si="8"/>
@@ -36465,11 +36732,11 @@
       </c>
       <c r="Z27">
         <f t="shared" si="5"/>
-        <v>6.3492063492063489E-2</v>
+        <v>6.2015503875968991E-2</v>
       </c>
       <c r="AA27">
         <f>SUM(Z$4:Z27)</f>
-        <v>0.80158730158730163</v>
+        <v>0.79844961240310075</v>
       </c>
       <c r="AF27">
         <f t="array" ref="AF27:AF46">FREQUENCY(Q27:Q1025,AD28:AD84)</f>
@@ -36513,7 +36780,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
@@ -36521,11 +36788,11 @@
       </c>
       <c r="N28">
         <f>SUM($L$4:L28)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550397</v>
       </c>
       <c r="O28">
         <f>SUM($M$4:M28)</f>
-        <v>1</v>
+        <v>0.99224806201550386</v>
       </c>
       <c r="Q28">
         <f t="shared" si="10"/>
@@ -36540,11 +36807,11 @@
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1007751937984496E-2</v>
       </c>
       <c r="U28">
         <f>SUM(T$4:T28)</f>
-        <v>0.79365079365079361</v>
+        <v>0.79844961240310108</v>
       </c>
       <c r="W28">
         <f t="shared" si="8"/>
@@ -36559,11 +36826,11 @@
       </c>
       <c r="Z28">
         <f t="shared" si="5"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="AA28">
         <f>SUM(Z$4:Z28)</f>
-        <v>0.82539682539682546</v>
+        <v>0.82170542635658916</v>
       </c>
       <c r="AF28">
         <v>43</v>
@@ -36606,7 +36873,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
@@ -36614,11 +36881,11 @@
       </c>
       <c r="N29">
         <f>SUM($L$4:L29)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <f>SUM($M$4:M29)</f>
-        <v>1</v>
+        <v>0.99224806201550386</v>
       </c>
       <c r="Q29">
         <f t="shared" si="10"/>
@@ -36633,11 +36900,11 @@
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U29">
         <f>SUM(T$4:T29)</f>
-        <v>0.80158730158730152</v>
+        <v>0.80620155038759722</v>
       </c>
       <c r="W29">
         <f t="shared" si="8"/>
@@ -36652,11 +36919,11 @@
       </c>
       <c r="Z29">
         <f t="shared" si="5"/>
-        <v>3.968253968253968E-2</v>
+        <v>3.875968992248062E-2</v>
       </c>
       <c r="AA29">
         <f>SUM(Z$4:Z29)</f>
-        <v>0.86507936507936511</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="AF29" t="e">
         <v>#N/A</v>
@@ -36691,7 +36958,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
@@ -36703,11 +36970,11 @@
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="N30">
         <f>SUM($L$4:L30)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <f>SUM($M$4:M30)</f>
@@ -36726,11 +36993,11 @@
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U30">
         <f>SUM(T$4:T30)</f>
-        <v>0.80952380952380942</v>
+        <v>0.81395348837209336</v>
       </c>
       <c r="W30">
         <f t="shared" si="8"/>
@@ -36745,11 +37012,11 @@
       </c>
       <c r="Z30">
         <f t="shared" si="5"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="AA30">
         <f>SUM(Z$4:Z30)</f>
-        <v>0.88888888888888895</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="AF30" t="e">
         <v>#N/A</v>
@@ -36800,7 +37067,7 @@
       </c>
       <c r="N31">
         <f>SUM($L$4:L31)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <f>SUM($M$4:M31)</f>
@@ -36819,11 +37086,11 @@
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U31">
         <f>SUM(T$4:T31)</f>
-        <v>0.81746031746031733</v>
+        <v>0.8217054263565895</v>
       </c>
       <c r="W31">
         <f t="shared" si="8"/>
@@ -36838,11 +37105,11 @@
       </c>
       <c r="Z31">
         <f t="shared" si="5"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA31">
         <f>SUM(Z$4:Z31)</f>
-        <v>0.89682539682539686</v>
+        <v>0.89147286821705429</v>
       </c>
       <c r="AF31" t="e">
         <v>#N/A</v>
@@ -36893,7 +37160,7 @@
       </c>
       <c r="N32">
         <f>SUM($L$4:L32)</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <f>SUM($M$4:M32)</f>
@@ -36912,11 +37179,11 @@
       </c>
       <c r="T32">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U32">
         <f>SUM(T$4:T32)</f>
-        <v>0.84126984126984117</v>
+        <v>0.84496124031007791</v>
       </c>
       <c r="W32">
         <f t="shared" si="8"/>
@@ -36931,11 +37198,11 @@
       </c>
       <c r="Z32">
         <f t="shared" si="5"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA32">
         <f>SUM(Z$4:Z32)</f>
-        <v>0.90476190476190477</v>
+        <v>0.89922480620155043</v>
       </c>
       <c r="AF32" t="e">
         <v>#N/A</v>
@@ -36975,11 +37242,11 @@
       </c>
       <c r="T33">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U33">
         <f>SUM(T$4:T33)</f>
-        <v>0.84920634920634908</v>
+        <v>0.85271317829457405</v>
       </c>
       <c r="W33">
         <f t="shared" si="8"/>
@@ -36994,11 +37261,11 @@
       </c>
       <c r="Z33">
         <f t="shared" si="5"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="AA33">
         <f>SUM(Z$4:Z33)</f>
-        <v>0.9285714285714286</v>
+        <v>0.92248062015503884</v>
       </c>
       <c r="AF33" t="e">
         <v>#N/A</v>
@@ -37042,7 +37309,7 @@
       </c>
       <c r="U34">
         <f>SUM(T$4:T34)</f>
-        <v>0.84920634920634908</v>
+        <v>0.85271317829457405</v>
       </c>
       <c r="W34">
         <f t="shared" si="8"/>
@@ -37057,11 +37324,11 @@
       </c>
       <c r="Z34">
         <f t="shared" si="5"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA34">
         <f>SUM(Z$4:Z34)</f>
-        <v>0.93650793650793651</v>
+        <v>0.93023255813953498</v>
       </c>
       <c r="AF34" t="e">
         <v>#N/A</v>
@@ -37101,11 +37368,11 @@
       </c>
       <c r="T35">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U35">
         <f>SUM(T$4:T35)</f>
-        <v>0.87301587301587291</v>
+        <v>0.87596899224806246</v>
       </c>
       <c r="W35">
         <f t="shared" si="8"/>
@@ -37120,11 +37387,11 @@
       </c>
       <c r="Z35">
         <f t="shared" si="5"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="AA35">
         <f>SUM(Z$4:Z35)</f>
-        <v>0.95238095238095233</v>
+        <v>0.94573643410852726</v>
       </c>
       <c r="AF35" t="e">
         <v>#N/A</v>
@@ -37164,11 +37431,11 @@
       </c>
       <c r="T36">
         <f t="shared" si="3"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="U36">
         <f>SUM(T$4:T36)</f>
-        <v>0.88888888888888884</v>
+        <v>0.89147286821705474</v>
       </c>
       <c r="W36">
         <f t="shared" si="8"/>
@@ -37183,11 +37450,11 @@
       </c>
       <c r="Z36">
         <f t="shared" si="5"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="AA36">
         <f>SUM(Z$4:Z36)</f>
-        <v>0.96825396825396814</v>
+        <v>0.96124031007751953</v>
       </c>
       <c r="AF36" t="e">
         <v>#N/A</v>
@@ -37227,11 +37494,11 @@
       </c>
       <c r="T37">
         <f t="shared" si="3"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="U37">
         <f>SUM(T$4:T37)</f>
-        <v>0.91269841269841268</v>
+        <v>0.91472868217054315</v>
       </c>
       <c r="W37">
         <f t="shared" si="8"/>
@@ -37250,7 +37517,7 @@
       </c>
       <c r="AA37">
         <f>SUM(Z$4:Z37)</f>
-        <v>0.96825396825396814</v>
+        <v>0.96124031007751953</v>
       </c>
       <c r="AF37" t="e">
         <v>#N/A</v>
@@ -37294,7 +37561,7 @@
       </c>
       <c r="U38">
         <f>SUM(T$4:T38)</f>
-        <v>0.91269841269841268</v>
+        <v>0.91472868217054315</v>
       </c>
       <c r="W38">
         <f t="shared" si="8"/>
@@ -37309,11 +37576,11 @@
       </c>
       <c r="Z38">
         <f t="shared" si="5"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="AA38">
         <f>SUM(Z$4:Z38)</f>
-        <v>0.98412698412698396</v>
+        <v>0.97674418604651181</v>
       </c>
       <c r="AF38" t="e">
         <v>#N/A</v>
@@ -37353,11 +37620,11 @@
       </c>
       <c r="T39">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U39">
         <f>SUM(T$4:T39)</f>
-        <v>0.92063492063492058</v>
+        <v>0.92248062015503929</v>
       </c>
       <c r="W39">
         <f t="shared" si="8"/>
@@ -37372,11 +37639,11 @@
       </c>
       <c r="Z39">
         <f t="shared" si="5"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA39">
         <f>SUM(Z$4:Z39)</f>
-        <v>0.99206349206349187</v>
+        <v>0.98449612403100795</v>
       </c>
       <c r="AF39" t="e">
         <v>#N/A</v>
@@ -37416,11 +37683,11 @@
       </c>
       <c r="T40">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U40">
         <f>SUM(T$4:T40)</f>
-        <v>0.92857142857142849</v>
+        <v>0.93023255813953543</v>
       </c>
       <c r="W40">
         <f t="shared" si="8"/>
@@ -37439,7 +37706,7 @@
       </c>
       <c r="AA40">
         <f>SUM(Z$4:Z40)</f>
-        <v>0.99206349206349187</v>
+        <v>0.98449612403100795</v>
       </c>
       <c r="AF40" t="e">
         <v>#N/A</v>
@@ -37479,11 +37746,11 @@
       </c>
       <c r="T41">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U41">
         <f>SUM(T$4:T41)</f>
-        <v>0.9365079365079364</v>
+        <v>0.93798449612403156</v>
       </c>
       <c r="W41">
         <f t="shared" si="8"/>
@@ -37498,11 +37765,11 @@
       </c>
       <c r="Z41">
         <f t="shared" si="5"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA41">
         <f>SUM(Z$4:Z41)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99224806201550408</v>
       </c>
       <c r="AF41" t="e">
         <v>#N/A</v>
@@ -37542,11 +37809,11 @@
       </c>
       <c r="T42">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U42">
         <f>SUM(T$4:T42)</f>
-        <v>0.94444444444444431</v>
+        <v>0.9457364341085277</v>
       </c>
       <c r="W42">
         <f t="shared" si="8"/>
@@ -37565,7 +37832,7 @@
       </c>
       <c r="AA42">
         <f>SUM(Z$4:Z42)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99224806201550408</v>
       </c>
       <c r="AF42" t="e">
         <v>#N/A</v>
@@ -37609,7 +37876,7 @@
       </c>
       <c r="U43">
         <f>SUM(T$4:T43)</f>
-        <v>0.94444444444444431</v>
+        <v>0.9457364341085277</v>
       </c>
       <c r="W43">
         <f t="shared" si="8"/>
@@ -37628,7 +37895,7 @@
       </c>
       <c r="AA43">
         <f>SUM(Z$4:Z43)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99224806201550408</v>
       </c>
       <c r="AF43" t="e">
         <v>#N/A</v>
@@ -37668,11 +37935,11 @@
       </c>
       <c r="T44">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U44">
         <f>SUM(T$4:T44)</f>
-        <v>0.95238095238095222</v>
+        <v>0.95348837209302384</v>
       </c>
       <c r="W44">
         <f t="shared" si="8"/>
@@ -37691,7 +37958,7 @@
       </c>
       <c r="AA44">
         <f>SUM(Z$4:Z44)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99224806201550408</v>
       </c>
       <c r="AF44" t="e">
         <v>#N/A</v>
@@ -37735,7 +38002,7 @@
       </c>
       <c r="U45">
         <f>SUM(T$4:T45)</f>
-        <v>0.95238095238095222</v>
+        <v>0.95348837209302384</v>
       </c>
       <c r="W45">
         <f t="shared" si="8"/>
@@ -37754,7 +38021,7 @@
       </c>
       <c r="AA45">
         <f>SUM(Z$4:Z45)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99224806201550408</v>
       </c>
       <c r="AF45" t="e">
         <v>#N/A</v>
@@ -37794,11 +38061,11 @@
       </c>
       <c r="T46">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U46">
         <f>SUM(T$4:T46)</f>
-        <v>0.96031746031746013</v>
+        <v>0.96124031007751998</v>
       </c>
       <c r="W46">
         <f t="shared" si="8"/>
@@ -37809,15 +38076,15 @@
         <v>332.5</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="AA46">
         <f>SUM(Z$4:Z46)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AF46" t="e">
         <v>#N/A</v>
@@ -37861,7 +38128,7 @@
       </c>
       <c r="U47">
         <f>SUM(T$4:T47)</f>
-        <v>0.96031746031746013</v>
+        <v>0.96124031007751998</v>
       </c>
       <c r="W47">
         <f t="shared" si="8"/>
@@ -37880,7 +38147,7 @@
       </c>
       <c r="AA47">
         <f>SUM(Z$4:Z47)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -37921,7 +38188,7 @@
       </c>
       <c r="U48">
         <f>SUM(T$4:T48)</f>
-        <v>0.96031746031746013</v>
+        <v>0.96124031007751998</v>
       </c>
       <c r="W48">
         <f t="shared" si="8"/>
@@ -37940,7 +38207,7 @@
       </c>
       <c r="AA48">
         <f>SUM(Z$4:Z48)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
@@ -37981,7 +38248,7 @@
       </c>
       <c r="U49">
         <f>SUM(T$4:T49)</f>
-        <v>0.96031746031746013</v>
+        <v>0.96124031007751998</v>
       </c>
       <c r="W49">
         <f t="shared" si="8"/>
@@ -38000,7 +38267,7 @@
       </c>
       <c r="AA49">
         <f>SUM(Z$4:Z49)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -38037,11 +38304,11 @@
       </c>
       <c r="T50">
         <f t="shared" si="3"/>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5503875968992248E-2</v>
       </c>
       <c r="U50">
         <f>SUM(T$4:T50)</f>
-        <v>0.97619047619047605</v>
+        <v>0.97674418604651225</v>
       </c>
       <c r="W50">
         <f t="shared" si="8"/>
@@ -38060,7 +38327,7 @@
       </c>
       <c r="AA50">
         <f>SUM(Z$4:Z50)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
@@ -38101,7 +38368,7 @@
       </c>
       <c r="U51">
         <f>SUM(T$4:T51)</f>
-        <v>0.97619047619047605</v>
+        <v>0.97674418604651225</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
@@ -38138,11 +38405,11 @@
       </c>
       <c r="T52">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U52">
         <f>SUM(T$4:T52)</f>
-        <v>0.98412698412698396</v>
+        <v>0.98449612403100839</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
@@ -38179,11 +38446,11 @@
       </c>
       <c r="T53">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U53">
         <f>SUM(T$4:T53)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
@@ -38224,7 +38491,7 @@
       </c>
       <c r="U54">
         <f>SUM(T$4:T54)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
@@ -38265,7 +38532,7 @@
       </c>
       <c r="U55">
         <f>SUM(T$4:T55)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
@@ -38306,7 +38573,7 @@
       </c>
       <c r="U56">
         <f>SUM(T$4:T56)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
@@ -38347,7 +38614,7 @@
       </c>
       <c r="U57">
         <f>SUM(T$4:T57)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
@@ -38388,7 +38655,7 @@
       </c>
       <c r="U58">
         <f>SUM(T$4:T58)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
@@ -38429,7 +38696,7 @@
       </c>
       <c r="U59">
         <f>SUM(T$4:T59)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
@@ -38470,7 +38737,7 @@
       </c>
       <c r="U60">
         <f>SUM(T$4:T60)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
@@ -38511,7 +38778,7 @@
       </c>
       <c r="U61">
         <f>SUM(T$4:T61)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
@@ -38552,7 +38819,7 @@
       </c>
       <c r="U62">
         <f>SUM(T$4:T62)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
@@ -38593,7 +38860,7 @@
       </c>
       <c r="U63">
         <f>SUM(T$4:T63)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
@@ -38634,7 +38901,7 @@
       </c>
       <c r="U64">
         <f>SUM(T$4:T64)</f>
-        <v>0.99206349206349187</v>
+        <v>0.99224806201550453</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -38671,11 +38938,11 @@
       </c>
       <c r="T65">
         <f t="shared" si="3"/>
-        <v>7.9365079365079361E-3</v>
+        <v>7.7519379844961239E-3</v>
       </c>
       <c r="U65">
         <f>SUM(T$4:T65)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000007</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -38716,7 +38983,7 @@
       </c>
       <c r="U66">
         <f>SUM(T$4:T66)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000007</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -38757,7 +39024,7 @@
       </c>
       <c r="U67">
         <f>SUM(T$4:T67)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -38798,7 +39065,7 @@
       </c>
       <c r="U68">
         <f>SUM(T$4:T68)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000007</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -38839,7 +39106,7 @@
       </c>
       <c r="U69">
         <f>SUM(T$4:T69)</f>
-        <v>0.99999999999999978</v>
+        <v>1.0000000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -40165,19 +40432,67 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>restart_Mar_2025!K128</f>
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <f>restart_Mar_2025!E128</f>
+        <v>106</v>
+      </c>
+      <c r="C130">
+        <f>restart_Mar_2025!F128</f>
+        <v>90</v>
+      </c>
+      <c r="D130">
+        <f>restart_Mar_2025!I128</f>
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ref="E130:E132" si="23">C130+B130</f>
+        <v>196</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>restart_Mar_2025!K129</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <f>restart_Mar_2025!E129</f>
+        <v>107</v>
+      </c>
+      <c r="C131">
+        <f>restart_Mar_2025!F129</f>
+        <v>112</v>
+      </c>
+      <c r="D131">
+        <f>restart_Mar_2025!I129</f>
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="23"/>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>restart_Mar_2025!K130</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <f>restart_Mar_2025!E130</f>
+        <v>155</v>
+      </c>
+      <c r="C132">
+        <f>restart_Mar_2025!F130</f>
+        <v>176</v>
+      </c>
+      <c r="D132">
+        <f>restart_Mar_2025!I130</f>
+        <v>21</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="23"/>
+        <v>331</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -40401,7 +40716,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40424,10 +40739,10 @@
         <v>63</v>
       </c>
       <c r="B2" s="16">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="16">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -40448,19 +40763,16 @@
       <c r="B4" s="16">
         <v>5</v>
       </c>
-      <c r="C4" s="16">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" s="16">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -40468,10 +40780,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="16">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -40479,10 +40791,10 @@
         <v>62</v>
       </c>
       <c r="B7" s="16">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C7" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -40491,17 +40803,17 @@
       </c>
       <c r="B8" s="15">
         <f>SUM(B2:B7)</f>
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15">
         <f>SUM(C2:C7)</f>
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="32">
         <f>B8-C8</f>
-        <v>-5</v>
+        <v>-12</v>
       </c>
     </row>
   </sheetData>
@@ -40509,10 +40821,10 @@
     <sortCondition ref="K7:K122"/>
   </sortState>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/games/games.xlsx
+++ b/games/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8a6a7c185fb1dd3/Personal/Games/TMF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13801" documentId="13_ncr:1_{DE634A77-7F02-4205-BEB0-20A9591251C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7420C7BC-5E21-4C46-A8E5-F664443580A9}"/>
+  <xr:revisionPtr revIDLastSave="13802" documentId="13_ncr:1_{DE634A77-7F02-4205-BEB0-20A9591251C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE34A35A-078C-402F-AD61-4A268F471897}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="restart_Mar_2025" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId6"/>
+    <pivotCache cacheId="42" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -804,12 +804,6 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -828,6 +822,12 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -21581,7 +21581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E406358A-409A-43B9-8A7A-A4F40296372A}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E406358A-409A-43B9-8A7A-A4F40296372A}" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AA30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -22005,41 +22005,14 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="2" count="25">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="24"/>
-              <x v="25"/>
-            </reference>
-            <reference field="3" count="25" selected="0">
               <x v="0"/>
               <x v="1"/>
               <x v="2"/>
@@ -22058,13 +22031,13 @@
               <x v="15"/>
               <x v="16"/>
               <x v="17"/>
+              <x v="18"/>
               <x v="19"/>
               <x v="20"/>
               <x v="21"/>
               <x v="22"/>
               <x v="23"/>
               <x v="24"/>
-              <x v="25"/>
             </reference>
           </references>
         </pivotArea>
@@ -22136,14 +22109,41 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="2" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+            </reference>
+            <reference field="3" count="25" selected="0">
               <x v="0"/>
               <x v="1"/>
               <x v="2"/>
@@ -22162,13 +22162,13 @@
               <x v="15"/>
               <x v="16"/>
               <x v="17"/>
-              <x v="18"/>
               <x v="19"/>
               <x v="20"/>
               <x v="21"/>
               <x v="22"/>
               <x v="23"/>
               <x v="24"/>
+              <x v="25"/>
             </reference>
           </references>
         </pivotArea>
@@ -22191,8 +22191,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE9E5083-014D-451E-889D-16E94902F766}" name="Table1" displayName="Table1" ref="A1:C9" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{65D88E98-3611-4C57-86D3-893E2A7D5784}" name="Column1" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{6499A51F-3875-4832-8848-8EAE69C25D35}" name="Column2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{388BB7CE-B501-495D-A257-E664D345E83C}" name="Column3" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6499A51F-3875-4832-8848-8EAE69C25D35}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{388BB7CE-B501-495D-A257-E664D345E83C}" name="Column3" totalsRowFunction="count" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22464,11 +22464,11 @@
   <dimension ref="A1:AK1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
       <selection pane="topRight" activeCell="B22" sqref="B22"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
-      <selection pane="bottomRight" activeCell="P132" sqref="P132"/>
+      <selection pane="bottomRight" activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22808,35 +22808,35 @@
         <v>8</v>
       </c>
       <c r="W4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="X4" s="20">
-        <f t="shared" ref="X4:X30" si="6">COUNTIF(C$2:C$10000,W4)</f>
-        <v>7</v>
-      </c>
-      <c r="Y4" s="18">
-        <f t="shared" ref="Y4:Y30" si="7">COUNTIFS($C$2:$C$10000,W4,$J$2:$J$10000,"SB")/X4</f>
-        <v>0.7142857142857143</v>
+        <f>COUNTIF(C$2:C$10000,W4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="18" t="e">
+        <f>COUNTIFS($C$2:$C$10000,W4,$J$2:$J$10000,"SB")/X4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z4" s="21">
-        <f t="shared" ref="Z4:Z30" si="8">COUNTIF(D$2:D$10000,W4)</f>
-        <v>4</v>
+        <f>COUNTIF(D$2:D$10000,W4)</f>
+        <v>2</v>
       </c>
       <c r="AA4" s="19">
-        <f t="shared" ref="AA4:AA30" si="9">COUNTIFS($D$2:$D$10000,W4,$J$2:$J$10000,"av")/Z4</f>
-        <v>0.5</v>
+        <f>COUNTIFS($D$2:$D$10000,W4,$J$2:$J$10000,"av")/Z4</f>
+        <v>1</v>
       </c>
       <c r="AB4" s="35">
-        <f t="shared" ref="AB4:AB30" si="10">Z4+X4</f>
-        <v>11</v>
+        <f>Z4+X4</f>
+        <v>2</v>
       </c>
       <c r="AC4" s="37">
-        <f t="shared" ref="AC4:AC30" si="11">(IF(X4=0,0,X4*Y4)+IF(Z4=0,0,AA4*Z4))/(Z4+X4)</f>
-        <v>0.63636363636363635</v>
+        <f>(IF(X4=0,0,X4*Y4)+IF(Z4=0,0,AA4*Z4))/(Z4+X4)</f>
+        <v>1</v>
       </c>
       <c r="AD4" s="35">
-        <f t="shared" ref="AD4:AD30" si="12">AC4*AB4</f>
-        <v>7</v>
+        <f>AC4*AB4</f>
+        <v>2</v>
       </c>
       <c r="AF4" t="s">
         <v>17</v>
@@ -22933,45 +22933,45 @@
         <v>11.5</v>
       </c>
       <c r="W5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="X5" s="20">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>COUNTIF(C$2:C$10000,W5)</f>
+        <v>7</v>
       </c>
       <c r="Y5" s="18">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <f>COUNTIFS($C$2:$C$10000,W5,$J$2:$J$10000,"SB")/X5</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z5" s="21">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(D$2:D$10000,W5)</f>
+        <v>3</v>
+      </c>
+      <c r="AA5" s="19">
+        <f>COUNTIFS($D$2:$D$10000,W5,$J$2:$J$10000,"av")/Z5</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="35">
+        <f>Z5+X5</f>
         <v>10</v>
       </c>
-      <c r="AA5" s="19">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="AB5" s="35">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
       <c r="AC5" s="37">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f>(IF(X5=0,0,X5*Y5)+IF(Z5=0,0,AA5*Z5))/(Z5+X5)</f>
+        <v>0.9</v>
       </c>
       <c r="AD5" s="35">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>AC5*AB5</f>
+        <v>9</v>
       </c>
       <c r="AF5" t="s">
         <v>20</v>
       </c>
       <c r="AG5" s="2">
-        <f t="shared" ref="AG5:AG6" si="13">COUNTIF(B$2:B$10000,AF5)</f>
+        <f t="shared" ref="AG5:AG6" si="6">COUNTIF(B$2:B$10000,AF5)</f>
         <v>41</v>
       </c>
       <c r="AH5" s="20">
-        <f t="shared" ref="AH5:AH6" si="14">COUNTIFS($B$2:$B$10000,AF5,$J$2:$J$10000,"SB")</f>
+        <f t="shared" ref="AH5:AH6" si="7">COUNTIFS($B$2:$B$10000,AF5,$J$2:$J$10000,"SB")</f>
         <v>28</v>
       </c>
       <c r="AI5" s="28">
@@ -22979,11 +22979,11 @@
         <v>0.68292682926829273</v>
       </c>
       <c r="AJ5" s="21">
-        <f t="shared" ref="AJ5:AJ6" si="15">COUNTIFS($B$2:$B$10000,AF5,$J$2:$J$10000,"AV")</f>
+        <f t="shared" ref="AJ5:AJ6" si="8">COUNTIFS($B$2:$B$10000,AF5,$J$2:$J$10000,"AV")</f>
         <v>13</v>
       </c>
       <c r="AK5" s="29">
-        <f t="shared" ref="AK5:AK7" si="16">AJ5/AG5</f>
+        <f t="shared" ref="AK5:AK7" si="9">AJ5/AG5</f>
         <v>0.31707317073170732</v>
       </c>
     </row>
@@ -23061,42 +23061,42 @@
         <v>53</v>
       </c>
       <c r="X6" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W6)</f>
         <v>4</v>
       </c>
       <c r="Y6" s="18">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS($C$2:$C$10000,W6,$J$2:$J$10000,"SB")/X6</f>
         <v>1</v>
       </c>
       <c r="Z6" s="21">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(D$2:D$10000,W6)</f>
         <v>1</v>
       </c>
       <c r="AA6" s="19">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS($D$2:$D$10000,W6,$J$2:$J$10000,"av")/Z6</f>
         <v>0</v>
       </c>
       <c r="AB6" s="35">
-        <f t="shared" si="10"/>
+        <f>Z6+X6</f>
         <v>5</v>
       </c>
       <c r="AC6" s="37">
-        <f t="shared" si="11"/>
+        <f>(IF(X6=0,0,X6*Y6)+IF(Z6=0,0,AA6*Z6))/(Z6+X6)</f>
         <v>0.8</v>
       </c>
       <c r="AD6" s="35">
-        <f t="shared" si="12"/>
+        <f>AC6*AB6</f>
         <v>4</v>
       </c>
       <c r="AF6" t="s">
         <v>14</v>
       </c>
       <c r="AG6" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AH6" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AI6" s="28">
@@ -23104,11 +23104,11 @@
         <v>0.65</v>
       </c>
       <c r="AJ6" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AK6" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.35</v>
       </c>
     </row>
@@ -23183,35 +23183,35 @@
         <v>18.5</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="X7" s="20">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>COUNTIF(C$2:C$10000,W7)</f>
+        <v>7</v>
       </c>
       <c r="Y7" s="18">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
+        <f>COUNTIFS($C$2:$C$10000,W7,$J$2:$J$10000,"SB")/X7</f>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Z7" s="21">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>COUNTIF(D$2:D$10000,W7)</f>
+        <v>5</v>
       </c>
       <c r="AA7" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>COUNTIFS($D$2:$D$10000,W7,$J$2:$J$10000,"av")/Z7</f>
+        <v>0.6</v>
       </c>
       <c r="AB7" s="35">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f>Z7+X7</f>
+        <v>12</v>
       </c>
       <c r="AC7" s="37">
-        <f t="shared" si="11"/>
-        <v>0.7142857142857143</v>
+        <f>(IF(X7=0,0,X7*Y7)+IF(Z7=0,0,AA7*Z7))/(Z7+X7)</f>
+        <v>0.75</v>
       </c>
       <c r="AD7" s="35">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f>AC7*AB7</f>
+        <v>9</v>
       </c>
       <c r="AF7" s="22" t="s">
         <v>6</v>
@@ -23233,7 +23233,7 @@
         <v>49</v>
       </c>
       <c r="AK7" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.37984496124031009</v>
       </c>
     </row>
@@ -23309,35 +23309,35 @@
         <v>22</v>
       </c>
       <c r="W8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="X8" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W8)</f>
         <v>8</v>
       </c>
       <c r="Y8" s="18">
-        <f t="shared" si="7"/>
-        <v>0.625</v>
+        <f>COUNTIFS($C$2:$C$10000,W8,$J$2:$J$10000,"SB")/X8</f>
+        <v>0.75</v>
       </c>
       <c r="Z8" s="21">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AA8" s="19">
-        <f t="shared" si="9"/>
-        <v>0.22222222222222221</v>
+        <f>COUNTIF(D$2:D$10000,W8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="19" t="e">
+        <f>COUNTIFS($D$2:$D$10000,W8,$J$2:$J$10000,"av")/Z8</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB8" s="35">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f>Z8+X8</f>
+        <v>8</v>
       </c>
       <c r="AC8" s="37">
-        <f t="shared" si="11"/>
-        <v>0.41176470588235292</v>
+        <f>(IF(X8=0,0,X8*Y8)+IF(Z8=0,0,AA8*Z8))/(Z8+X8)</f>
+        <v>0.75</v>
       </c>
       <c r="AD8" s="35">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f>AC8*AB8</f>
+        <v>6</v>
       </c>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
@@ -23378,7 +23378,7 @@
         <v>SB</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" ref="K9:K11" si="17">K8+1</f>
+        <f t="shared" ref="K9:K11" si="10">K8+1</f>
         <v>8</v>
       </c>
       <c r="L9" s="10">
@@ -23414,35 +23414,35 @@
         <v>18.5</v>
       </c>
       <c r="W9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="X9" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W9)</f>
+        <v>6</v>
+      </c>
+      <c r="Y9" s="18">
+        <f>COUNTIFS($C$2:$C$10000,W9,$J$2:$J$10000,"SB")/X9</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z9" s="21">
+        <f>COUNTIF(D$2:D$10000,W9)</f>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="19">
+        <f>COUNTIFS($D$2:$D$10000,W9,$J$2:$J$10000,"av")/Z9</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z9" s="21">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AA9" s="19">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="AB9" s="35">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f>Z9+X9</f>
+        <v>7</v>
       </c>
       <c r="AC9" s="37">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f>(IF(X9=0,0,X9*Y9)+IF(Z9=0,0,AA9*Z9))/(Z9+X9)</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AD9" s="35">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f>AC9*AB9</f>
+        <v>5</v>
       </c>
       <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
@@ -23483,7 +23483,7 @@
         <v>AV</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="L10" s="10">
@@ -23519,35 +23519,35 @@
         <v>15</v>
       </c>
       <c r="W10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="X10" s="20">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f>COUNTIF(C$2:C$10000,W10)</f>
+        <v>7</v>
       </c>
       <c r="Y10" s="18">
-        <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <f>COUNTIFS($C$2:$C$10000,W10,$J$2:$J$10000,"SB")/X10</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Z10" s="21">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>COUNTIF(D$2:D$10000,W10)</f>
+        <v>4</v>
       </c>
       <c r="AA10" s="19">
-        <f t="shared" si="9"/>
-        <v>0.625</v>
+        <f>COUNTIFS($D$2:$D$10000,W10,$J$2:$J$10000,"av")/Z10</f>
+        <v>0.5</v>
       </c>
       <c r="AB10" s="35">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f>Z10+X10</f>
+        <v>11</v>
       </c>
       <c r="AC10" s="37">
-        <f t="shared" si="11"/>
-        <v>0.47058823529411764</v>
+        <f>(IF(X10=0,0,X10*Y10)+IF(Z10=0,0,AA10*Z10))/(Z10+X10)</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="AD10" s="35">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>AC10*AB10</f>
+        <v>7</v>
       </c>
       <c r="AH10" s="34" t="s">
         <v>34</v>
@@ -23598,7 +23598,7 @@
         <v>SB</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L11" s="10">
@@ -23622,7 +23622,7 @@
         <v>1085</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" ref="Q11" si="18">O11-P11</f>
+        <f t="shared" ref="Q11" si="11">O11-P11</f>
         <v>-70</v>
       </c>
       <c r="R11">
@@ -23634,35 +23634,35 @@
         <v>11.5</v>
       </c>
       <c r="W11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="X11" s="20">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>COUNTIF(C$2:C$10000,W11)</f>
+        <v>10</v>
       </c>
       <c r="Y11" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>COUNTIFS($C$2:$C$10000,W11,$J$2:$J$10000,"SB")/X11</f>
+        <v>0.6</v>
       </c>
       <c r="Z11" s="21">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f>COUNTIF(D$2:D$10000,W11)</f>
+        <v>3</v>
       </c>
       <c r="AA11" s="19">
-        <f t="shared" si="9"/>
-        <v>0.54545454545454541</v>
+        <f>COUNTIFS($D$2:$D$10000,W11,$J$2:$J$10000,"av")/Z11</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AB11" s="35">
-        <f t="shared" si="10"/>
+        <f>Z11+X11</f>
         <v>13</v>
       </c>
       <c r="AC11" s="37">
-        <f t="shared" si="11"/>
-        <v>0.46153846153846156</v>
+        <f>(IF(X11=0,0,X11*Y11)+IF(Z11=0,0,AA11*Z11))/(Z11+X11)</f>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AD11" s="35">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f>AC11*AB11</f>
+        <v>8</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>72</v>
@@ -23720,7 +23720,7 @@
         <v>SB</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" ref="K12:K23" si="19">K11+1</f>
+        <f t="shared" ref="K12:K23" si="12">K11+1</f>
         <v>11</v>
       </c>
       <c r="L12" s="10">
@@ -23744,7 +23744,7 @@
         <v>1183</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" ref="Q12:Q20" si="20">O12-P12</f>
+        <f t="shared" ref="Q12:Q20" si="13">O12-P12</f>
         <v>-43</v>
       </c>
       <c r="R12">
@@ -23756,35 +23756,35 @@
         <v>15</v>
       </c>
       <c r="W12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="X12" s="20">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>COUNTIF(C$2:C$10000,W12)</f>
+        <v>5</v>
       </c>
       <c r="Y12" s="18">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
+        <f>COUNTIFS($C$2:$C$10000,W12,$J$2:$J$10000,"SB")/X12</f>
+        <v>1</v>
       </c>
       <c r="Z12" s="21">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f>COUNTIF(D$2:D$10000,W12)</f>
+        <v>5</v>
       </c>
       <c r="AA12" s="19">
-        <f t="shared" si="9"/>
-        <v>0.42857142857142855</v>
+        <f>COUNTIFS($D$2:$D$10000,W12,$J$2:$J$10000,"av")/Z12</f>
+        <v>0.2</v>
       </c>
       <c r="AB12" s="35">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f>Z12+X12</f>
+        <v>10</v>
       </c>
       <c r="AC12" s="37">
-        <f t="shared" si="11"/>
-        <v>0.44444444444444442</v>
+        <f>(IF(X12=0,0,X12*Y12)+IF(Z12=0,0,AA12*Z12))/(Z12+X12)</f>
+        <v>0.6</v>
       </c>
       <c r="AD12" s="35">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f>AC12*AB12</f>
+        <v>6</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>74</v>
@@ -23842,7 +23842,7 @@
         <v>SB</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="L13" s="10">
@@ -23866,7 +23866,7 @@
         <v>1266</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-28</v>
       </c>
       <c r="R13">
@@ -23878,35 +23878,35 @@
         <v>15</v>
       </c>
       <c r="W13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X13" s="20">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>COUNTIF(C$2:C$10000,W13)</f>
+        <v>6</v>
       </c>
       <c r="Y13" s="18">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS($C$2:$C$10000,W13,$J$2:$J$10000,"SB")/X13</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z13" s="21">
+        <f>COUNTIF(D$2:D$10000,W13)</f>
+        <v>4</v>
+      </c>
+      <c r="AA13" s="19">
+        <f>COUNTIFS($D$2:$D$10000,W13,$J$2:$J$10000,"av")/Z13</f>
+        <v>0.25</v>
+      </c>
+      <c r="AB13" s="35">
+        <f>Z13+X13</f>
+        <v>10</v>
+      </c>
+      <c r="AC13" s="37">
+        <f>(IF(X13=0,0,X13*Y13)+IF(Z13=0,0,AA13*Z13))/(Z13+X13)</f>
         <v>0.6</v>
       </c>
-      <c r="Z13" s="21">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AA13" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="35">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AC13" s="37">
-        <f t="shared" si="11"/>
-        <v>0.42857142857142855</v>
-      </c>
       <c r="AD13" s="35">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f>AC13*AB13</f>
+        <v>6</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>52</v>
@@ -23964,7 +23964,7 @@
         <v>AV</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="L14" s="10">
@@ -23988,7 +23988,7 @@
         <v>1356</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-46</v>
       </c>
       <c r="R14">
@@ -24000,35 +24000,35 @@
         <v>15</v>
       </c>
       <c r="W14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X14" s="20">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f>COUNTIF(C$2:C$10000,W14)</f>
+        <v>11</v>
       </c>
       <c r="Y14" s="18">
-        <f t="shared" si="7"/>
-        <v>0.8571428571428571</v>
+        <f>COUNTIFS($C$2:$C$10000,W14,$J$2:$J$10000,"SB")/X14</f>
+        <v>0.63636363636363635</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>COUNTIF(D$2:D$10000,W14)</f>
+        <v>13</v>
       </c>
       <c r="AA14" s="19">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f>COUNTIFS($D$2:$D$10000,W14,$J$2:$J$10000,"av")/Z14</f>
+        <v>0.53846153846153844</v>
       </c>
       <c r="AB14" s="35">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f>Z14+X14</f>
+        <v>24</v>
       </c>
       <c r="AC14" s="37">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
+        <f>(IF(X14=0,0,X14*Y14)+IF(Z14=0,0,AA14*Z14))/(Z14+X14)</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="AD14" s="35">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <f>AC14*AB14</f>
+        <v>14</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>73</v>
@@ -24070,11 +24070,11 @@
         <v>80</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15" si="21">E15+F15</f>
+        <f t="shared" ref="G15" si="14">E15+F15</f>
         <v>197</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" ref="H15" si="22">E15-F15</f>
+        <f t="shared" ref="H15" si="15">E15-F15</f>
         <v>37</v>
       </c>
       <c r="I15" s="5">
@@ -24082,11 +24082,11 @@
         <v>37</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f t="shared" ref="J15" si="23">IF(E15=F15,"T",IF(E15&gt;F15,"SB","AV"))</f>
+        <f t="shared" ref="J15" si="16">IF(E15=F15,"T",IF(E15&gt;F15,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="L15" s="10">
@@ -24110,7 +24110,7 @@
         <v>1436</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-9</v>
       </c>
       <c r="R15">
@@ -24122,35 +24122,35 @@
         <v>16.5</v>
       </c>
       <c r="W15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X15" s="20">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>COUNTIF(C$2:C$10000,W15)</f>
+        <v>6</v>
       </c>
       <c r="Y15" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>COUNTIFS($C$2:$C$10000,W15,$J$2:$J$10000,"SB")/X15</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Z15" s="21">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f>COUNTIF(D$2:D$10000,W15)</f>
+        <v>10</v>
       </c>
       <c r="AA15" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>COUNTIFS($D$2:$D$10000,W15,$J$2:$J$10000,"av")/Z15</f>
+        <v>0.4</v>
       </c>
       <c r="AB15" s="35">
-        <f t="shared" si="10"/>
+        <f>Z15+X15</f>
+        <v>16</v>
+      </c>
+      <c r="AC15" s="37">
+        <f>(IF(X15=0,0,X15*Y15)+IF(Z15=0,0,AA15*Z15))/(Z15+X15)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AD15" s="35">
+        <f>AC15*AB15</f>
         <v>8</v>
-      </c>
-      <c r="AC15" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
       </c>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
@@ -24175,11 +24175,11 @@
         <v>112</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" ref="G16" si="24">E16+F16</f>
+        <f t="shared" ref="G16" si="17">E16+F16</f>
         <v>221</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ref="H16" si="25">E16-F16</f>
+        <f t="shared" ref="H16" si="18">E16-F16</f>
         <v>-3</v>
       </c>
       <c r="I16" s="5">
@@ -24187,11 +24187,11 @@
         <v>3</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f t="shared" ref="J16" si="26">IF(E16=F16,"T",IF(E16&gt;F16,"SB","AV"))</f>
+        <f t="shared" ref="J16" si="19">IF(E16=F16,"T",IF(E16&gt;F16,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="L16" s="10">
@@ -24215,7 +24215,7 @@
         <v>1548</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-12</v>
       </c>
       <c r="R16">
@@ -24227,34 +24227,34 @@
         <v>15</v>
       </c>
       <c r="W16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="X16" s="20">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f>COUNTIF(C$2:C$10000,W16)</f>
+        <v>7</v>
       </c>
       <c r="Y16" s="18">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
+        <f>COUNTIFS($C$2:$C$10000,W16,$J$2:$J$10000,"SB")/X16</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="Z16" s="21">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f>COUNTIF(D$2:D$10000,W16)</f>
+        <v>9</v>
       </c>
       <c r="AA16" s="19">
-        <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
+        <f>COUNTIFS($D$2:$D$10000,W16,$J$2:$J$10000,"av")/Z16</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AB16" s="35">
-        <f t="shared" si="10"/>
-        <v>13</v>
+        <f>Z16+X16</f>
+        <v>16</v>
       </c>
       <c r="AC16" s="37">
-        <f t="shared" si="11"/>
-        <v>0.61538461538461542</v>
+        <f>(IF(X16=0,0,X16*Y16)+IF(Z16=0,0,AA16*Z16))/(Z16+X16)</f>
+        <v>0.5</v>
       </c>
       <c r="AD16" s="35">
-        <f t="shared" si="12"/>
+        <f>AC16*AB16</f>
         <v>8</v>
       </c>
       <c r="AH16" s="1" t="s">
@@ -24286,11 +24286,11 @@
         <v>103</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:G22" si="27">E17+F17</f>
+        <f t="shared" ref="G17:G22" si="20">E17+F17</f>
         <v>205</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" ref="H17:H22" si="28">E17-F17</f>
+        <f t="shared" ref="H17:H22" si="21">E17-F17</f>
         <v>-1</v>
       </c>
       <c r="I17" s="5">
@@ -24298,11 +24298,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" ref="J17" si="29">IF(E17=F17,"T",IF(E17&gt;F17,"SB","AV"))</f>
+        <f t="shared" ref="J17" si="22">IF(E17=F17,"T",IF(E17&gt;F17,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K17" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="L17" s="10">
@@ -24326,7 +24326,7 @@
         <v>1651</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-13</v>
       </c>
       <c r="R17">
@@ -24338,35 +24338,35 @@
         <v>15</v>
       </c>
       <c r="W17" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="X17" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W17)</f>
         <v>1</v>
       </c>
       <c r="Y17" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>COUNTIFS($C$2:$C$10000,W17,$J$2:$J$10000,"SB")/X17</f>
+        <v>1</v>
       </c>
       <c r="Z17" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="19" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <f>COUNTIF(D$2:D$10000,W17)</f>
+        <v>3</v>
+      </c>
+      <c r="AA17" s="19">
+        <f>COUNTIFS($D$2:$D$10000,W17,$J$2:$J$10000,"av")/Z17</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB17" s="35">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>Z17+X17</f>
+        <v>4</v>
       </c>
       <c r="AC17" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>(IF(X17=0,0,X17*Y17)+IF(Z17=0,0,AA17*Z17))/(Z17+X17)</f>
+        <v>0.5</v>
       </c>
       <c r="AD17" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>AC17*AB17</f>
+        <v>2</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>99</v>
@@ -24402,11 +24402,11 @@
         <v>121</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>195</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>-47</v>
       </c>
       <c r="I18" s="5">
@@ -24414,11 +24414,11 @@
         <v>47</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f t="shared" ref="J18:J22" si="30">IF(E18=F18,"T",IF(E18&gt;F18,"SB","AV"))</f>
+        <f t="shared" ref="J18:J22" si="23">IF(E18=F18,"T",IF(E18&gt;F18,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K18" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="L18" s="10">
@@ -24442,7 +24442,7 @@
         <v>1772</v>
       </c>
       <c r="Q18" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-60</v>
       </c>
       <c r="R18">
@@ -24454,35 +24454,35 @@
         <v>15</v>
       </c>
       <c r="W18" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="X18" s="20">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>COUNTIF(C$2:C$10000,W18)</f>
+        <v>9</v>
       </c>
       <c r="Y18" s="18">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
+        <f>COUNTIFS($C$2:$C$10000,W18,$J$2:$J$10000,"SB")/X18</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z18" s="21">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>COUNTIF(D$2:D$10000,W18)</f>
+        <v>8</v>
       </c>
       <c r="AA18" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>COUNTIFS($D$2:$D$10000,W18,$J$2:$J$10000,"av")/Z18</f>
+        <v>0.625</v>
       </c>
       <c r="AB18" s="35">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f>Z18+X18</f>
+        <v>17</v>
       </c>
       <c r="AC18" s="37">
-        <f t="shared" si="11"/>
-        <v>0.14285714285714285</v>
+        <f>(IF(X18=0,0,X18*Y18)+IF(Z18=0,0,AA18*Z18))/(Z18+X18)</f>
+        <v>0.47058823529411764</v>
       </c>
       <c r="AD18" s="35">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>AC18*AB18</f>
+        <v>8</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>100</v>
@@ -24518,11 +24518,11 @@
         <v>111</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>247</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="I19" s="5">
@@ -24530,11 +24530,11 @@
         <v>25</v>
       </c>
       <c r="J19" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>SB</v>
       </c>
       <c r="K19" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="L19" s="10">
@@ -24558,7 +24558,7 @@
         <v>1883</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-35</v>
       </c>
       <c r="R19">
@@ -24570,35 +24570,35 @@
         <v>16.5</v>
       </c>
       <c r="W19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="X19" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W19)</f>
         <v>2</v>
       </c>
       <c r="Y19" s="18">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS($C$2:$C$10000,W19,$J$2:$J$10000,"SB")/X19</f>
         <v>0</v>
       </c>
       <c r="Z19" s="21">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>COUNTIF(D$2:D$10000,W19)</f>
+        <v>11</v>
       </c>
       <c r="AA19" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>COUNTIFS($D$2:$D$10000,W19,$J$2:$J$10000,"av")/Z19</f>
+        <v>0.54545454545454541</v>
       </c>
       <c r="AB19" s="35">
-        <f t="shared" si="10"/>
+        <f>Z19+X19</f>
+        <v>13</v>
+      </c>
+      <c r="AC19" s="37">
+        <f>(IF(X19=0,0,X19*Y19)+IF(Z19=0,0,AA19*Z19))/(Z19+X19)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AD19" s="35">
+        <f>AC19*AB19</f>
         <v>6</v>
-      </c>
-      <c r="AC19" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
       </c>
       <c r="AG19" s="1" t="s">
         <v>101</v>
@@ -24634,11 +24634,11 @@
         <v>104</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>225</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="I20" s="5">
@@ -24646,11 +24646,11 @@
         <v>17</v>
       </c>
       <c r="J20" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>SB</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="L20" s="10">
@@ -24674,7 +24674,7 @@
         <v>1987</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>-18</v>
       </c>
       <c r="R20">
@@ -24689,31 +24689,31 @@
         <v>18</v>
       </c>
       <c r="X20" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W20)</f>
         <v>7</v>
       </c>
       <c r="Y20" s="18">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS($C$2:$C$10000,W20,$J$2:$J$10000,"SB")/X20</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="Z20" s="21">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(D$2:D$10000,W20)</f>
         <v>4</v>
       </c>
       <c r="AA20" s="19">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS($D$2:$D$10000,W20,$J$2:$J$10000,"av")/Z20</f>
         <v>0.5</v>
       </c>
       <c r="AB20" s="35">
-        <f t="shared" si="10"/>
+        <f>Z20+X20</f>
         <v>11</v>
       </c>
       <c r="AC20" s="37">
-        <f t="shared" si="11"/>
+        <f>(IF(X20=0,0,X20*Y20)+IF(Z20=0,0,AA20*Z20))/(Z20+X20)</f>
         <v>0.45454545454545453</v>
       </c>
       <c r="AD20" s="35">
-        <f t="shared" si="12"/>
+        <f>AC20*AB20</f>
         <v>5</v>
       </c>
       <c r="AJ20" s="17"/>
@@ -24739,11 +24739,11 @@
         <v>120</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>229</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>-11</v>
       </c>
       <c r="I21" s="5">
@@ -24751,11 +24751,11 @@
         <v>11</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>AV</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="L21" s="10">
@@ -24779,7 +24779,7 @@
         <v>2107</v>
       </c>
       <c r="Q21" s="10">
-        <f t="shared" ref="Q21" si="31">O21-P21</f>
+        <f t="shared" ref="Q21" si="24">O21-P21</f>
         <v>-29</v>
       </c>
       <c r="R21">
@@ -24791,35 +24791,35 @@
         <v>16</v>
       </c>
       <c r="W21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X21" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W21)</f>
         <v>2</v>
       </c>
       <c r="Y21" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>COUNTIFS($C$2:$C$10000,W21,$J$2:$J$10000,"SB")/X21</f>
+        <v>0.5</v>
       </c>
       <c r="Z21" s="21">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>COUNTIF(D$2:D$10000,W21)</f>
+        <v>7</v>
       </c>
       <c r="AA21" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>COUNTIFS($D$2:$D$10000,W21,$J$2:$J$10000,"av")/Z21</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AB21" s="35">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f>Z21+X21</f>
+        <v>9</v>
       </c>
       <c r="AC21" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>(IF(X21=0,0,X21*Y21)+IF(Z21=0,0,AA21*Z21))/(Z21+X21)</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AD21" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>AC21*AB21</f>
+        <v>4</v>
       </c>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
@@ -24844,11 +24844,11 @@
         <v>102</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>194</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="I22" s="5">
@@ -24856,11 +24856,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>AV</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="L22" s="10">
@@ -24884,7 +24884,7 @@
         <v>2209</v>
       </c>
       <c r="Q22" s="10">
-        <f t="shared" ref="Q22" si="32">O22-P22</f>
+        <f t="shared" ref="Q22" si="25">O22-P22</f>
         <v>-39</v>
       </c>
       <c r="R22">
@@ -24896,35 +24896,35 @@
         <v>15</v>
       </c>
       <c r="W22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="X22" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W22)</f>
+        <v>5</v>
+      </c>
+      <c r="Y22" s="18">
+        <f>COUNTIFS($C$2:$C$10000,W22,$J$2:$J$10000,"SB")/X22</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z22" s="21">
+        <f>COUNTIF(D$2:D$10000,W22)</f>
+        <v>2</v>
+      </c>
+      <c r="AA22" s="19">
+        <f>COUNTIFS($D$2:$D$10000,W22,$J$2:$J$10000,"av")/Z22</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="35">
+        <f>Z22+X22</f>
         <v>7</v>
       </c>
-      <c r="Y22" s="18">
-        <f t="shared" si="7"/>
+      <c r="AC22" s="37">
+        <f>(IF(X22=0,0,X22*Y22)+IF(Z22=0,0,AA22*Z22))/(Z22+X22)</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="Z22" s="21">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AA22" s="19">
-        <f t="shared" si="9"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AB22" s="35">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="AC22" s="37">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
       <c r="AD22" s="35">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>AC22*AB22</f>
+        <v>3</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>102</v>
@@ -24956,11 +24956,11 @@
         <v>112</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" ref="G23" si="33">E23+F23</f>
+        <f t="shared" ref="G23" si="26">E23+F23</f>
         <v>226</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ref="H23" si="34">E23-F23</f>
+        <f t="shared" ref="H23" si="27">E23-F23</f>
         <v>2</v>
       </c>
       <c r="I23" s="5">
@@ -24968,11 +24968,11 @@
         <v>2</v>
       </c>
       <c r="J23" s="10" t="str">
-        <f t="shared" ref="J23" si="35">IF(E23=F23,"T",IF(E23&gt;F23,"SB","AV"))</f>
+        <f t="shared" ref="J23" si="28">IF(E23=F23,"T",IF(E23&gt;F23,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="L23" s="10">
@@ -24996,7 +24996,7 @@
         <v>2321</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" ref="Q23" si="36">O23-P23</f>
+        <f t="shared" ref="Q23" si="29">O23-P23</f>
         <v>-37</v>
       </c>
       <c r="R23">
@@ -25008,35 +25008,35 @@
         <v>15</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="X23" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f>COUNTIF(C$2:C$10000,W23)</f>
+        <v>8</v>
+      </c>
+      <c r="Y23" s="18">
+        <f>COUNTIFS($C$2:$C$10000,W23,$J$2:$J$10000,"SB")/X23</f>
+        <v>0.625</v>
       </c>
       <c r="Z23" s="21">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>COUNTIF(D$2:D$10000,W23)</f>
+        <v>9</v>
       </c>
       <c r="AA23" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>COUNTIFS($D$2:$D$10000,W23,$J$2:$J$10000,"av")/Z23</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AB23" s="35">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>Z23+X23</f>
+        <v>17</v>
       </c>
       <c r="AC23" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>(IF(X23=0,0,X23*Y23)+IF(Z23=0,0,AA23*Z23))/(Z23+X23)</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="AD23" s="35">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>AC23*AB23</f>
+        <v>7</v>
       </c>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
@@ -25061,11 +25061,11 @@
         <v>96</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:G37" si="37">E24+F24</f>
+        <f t="shared" ref="G24:G37" si="30">E24+F24</f>
         <v>176</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" ref="H24:H37" si="38">E24-F24</f>
+        <f t="shared" ref="H24:H37" si="31">E24-F24</f>
         <v>-16</v>
       </c>
       <c r="I24" s="5">
@@ -25073,11 +25073,11 @@
         <v>16</v>
       </c>
       <c r="J24" s="10" t="str">
-        <f t="shared" ref="J24:J37" si="39">IF(E24=F24,"T",IF(E24&gt;F24,"SB","AV"))</f>
+        <f t="shared" ref="J24:J37" si="32">IF(E24=F24,"T",IF(E24&gt;F24,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" ref="K24:K37" si="40">K23+1</f>
+        <f t="shared" ref="K24:K37" si="33">K23+1</f>
         <v>23</v>
       </c>
       <c r="L24" s="10">
@@ -25101,7 +25101,7 @@
         <v>2417</v>
       </c>
       <c r="Q24" s="10">
-        <f t="shared" ref="Q24:Q37" si="41">O24-P24</f>
+        <f t="shared" ref="Q24:Q37" si="34">O24-P24</f>
         <v>-53</v>
       </c>
       <c r="R24">
@@ -25113,35 +25113,35 @@
         <v>15</v>
       </c>
       <c r="W24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="X24" s="20">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>COUNTIF(C$2:C$10000,W24)</f>
+        <v>2</v>
       </c>
       <c r="Y24" s="18">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS($C$2:$C$10000,W24,$J$2:$J$10000,"SB")/X24</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="21">
+        <f>COUNTIF(D$2:D$10000,W24)</f>
+        <v>4</v>
+      </c>
+      <c r="AA24" s="19">
+        <f>COUNTIFS($D$2:$D$10000,W24,$J$2:$J$10000,"av")/Z24</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="35">
+        <f>Z24+X24</f>
+        <v>6</v>
+      </c>
+      <c r="AC24" s="37">
+        <f>(IF(X24=0,0,X24*Y24)+IF(Z24=0,0,AA24*Z24))/(Z24+X24)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AD24" s="35">
+        <f>AC24*AB24</f>
         <v>1</v>
-      </c>
-      <c r="Z24" s="21">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AA24" s="19">
-        <f t="shared" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB24" s="35">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AC24" s="37">
-        <f t="shared" si="11"/>
-        <v>0.6</v>
-      </c>
-      <c r="AD24" s="35">
-        <f t="shared" si="12"/>
-        <v>6</v>
       </c>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
@@ -25166,11 +25166,11 @@
         <v>105</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>192</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>-18</v>
       </c>
       <c r="I25" s="5">
@@ -25178,11 +25178,11 @@
         <v>18</v>
       </c>
       <c r="J25" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>AV</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="L25" s="10">
@@ -25206,7 +25206,7 @@
         <v>2522</v>
       </c>
       <c r="Q25" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-71</v>
       </c>
       <c r="R25">
@@ -25218,35 +25218,35 @@
         <v>15.5</v>
       </c>
       <c r="W25" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X25" s="20">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f>COUNTIF(C$2:C$10000,W25)</f>
+        <v>2</v>
       </c>
       <c r="Y25" s="18">
-        <f t="shared" si="7"/>
-        <v>0.63636363636363635</v>
+        <f>COUNTIFS($C$2:$C$10000,W25,$J$2:$J$10000,"SB")/X25</f>
+        <v>0.5</v>
       </c>
       <c r="Z25" s="21">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f>COUNTIF(D$2:D$10000,W25)</f>
+        <v>5</v>
       </c>
       <c r="AA25" s="19">
-        <f t="shared" si="9"/>
-        <v>0.53846153846153844</v>
+        <f>COUNTIFS($D$2:$D$10000,W25,$J$2:$J$10000,"av")/Z25</f>
+        <v>0</v>
       </c>
       <c r="AB25" s="35">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f>Z25+X25</f>
+        <v>7</v>
       </c>
       <c r="AC25" s="37">
-        <f t="shared" si="11"/>
-        <v>0.58333333333333337</v>
+        <f>(IF(X25=0,0,X25*Y25)+IF(Z25=0,0,AA25*Z25))/(Z25+X25)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AD25" s="35">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f>AC25*AB25</f>
+        <v>1</v>
       </c>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
@@ -25271,11 +25271,11 @@
         <v>114</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>204</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>-24</v>
       </c>
       <c r="I26" s="5">
@@ -25283,11 +25283,11 @@
         <v>24</v>
       </c>
       <c r="J26" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>AV</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="L26" s="10">
@@ -25311,7 +25311,7 @@
         <v>2636</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-95</v>
       </c>
       <c r="R26">
@@ -25323,35 +25323,35 @@
         <v>16</v>
       </c>
       <c r="W26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W26)</f>
         <v>2</v>
       </c>
       <c r="Y26" s="18">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
+        <f>COUNTIFS($C$2:$C$10000,W26,$J$2:$J$10000,"SB")/X26</f>
+        <v>0</v>
       </c>
       <c r="Z26" s="21">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>COUNTIF(D$2:D$10000,W26)</f>
+        <v>6</v>
       </c>
       <c r="AA26" s="19">
-        <f t="shared" si="9"/>
+        <f>COUNTIFS($D$2:$D$10000,W26,$J$2:$J$10000,"av")/Z26</f>
         <v>0</v>
       </c>
       <c r="AB26" s="35">
-        <f t="shared" si="10"/>
-        <v>6</v>
+        <f>Z26+X26</f>
+        <v>8</v>
       </c>
       <c r="AC26" s="37">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
+        <f>(IF(X26=0,0,X26*Y26)+IF(Z26=0,0,AA26*Z26))/(Z26+X26)</f>
+        <v>0</v>
       </c>
       <c r="AD26" s="35">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>AC26*AB26</f>
+        <v>0</v>
       </c>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
@@ -25376,11 +25376,11 @@
         <v>94</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>189</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="I27" s="5">
@@ -25388,11 +25388,11 @@
         <v>1</v>
       </c>
       <c r="J27" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>SB</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>26</v>
       </c>
       <c r="L27" s="10">
@@ -25416,7 +25416,7 @@
         <v>2730</v>
       </c>
       <c r="Q27" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-94</v>
       </c>
       <c r="R27">
@@ -25428,35 +25428,35 @@
         <v>15.5</v>
       </c>
       <c r="W27" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="X27" s="20">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(C$2:C$10000,W27)</f>
         <v>1</v>
       </c>
       <c r="Y27" s="18">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS($C$2:$C$10000,W27,$J$2:$J$10000,"SB")/X27</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="21">
+        <f>COUNTIF(D$2:D$10000,W27)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="19" t="e">
+        <f>COUNTIFS($D$2:$D$10000,W27,$J$2:$J$10000,"av")/Z27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="35">
+        <f>Z27+X27</f>
         <v>1</v>
       </c>
-      <c r="Z27" s="21">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AA27" s="19">
-        <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AB27" s="35">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
       <c r="AC27" s="37">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f>(IF(X27=0,0,X27*Y27)+IF(Z27=0,0,AA27*Z27))/(Z27+X27)</f>
+        <v>0</v>
       </c>
       <c r="AD27" s="35">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f>AC27*AB27</f>
+        <v>0</v>
       </c>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
@@ -25481,11 +25481,11 @@
         <v>91</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>177</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>-5</v>
       </c>
       <c r="I28" s="5">
@@ -25493,11 +25493,11 @@
         <v>5</v>
       </c>
       <c r="J28" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>AV</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="L28" s="10">
@@ -25521,7 +25521,7 @@
         <v>2821</v>
       </c>
       <c r="Q28" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-99</v>
       </c>
       <c r="R28">
@@ -25536,35 +25536,35 @@
         <v>51</v>
       </c>
       <c r="W28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="X28" s="20">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f>COUNTIF(C$2:C$10000,W28)</f>
+        <v>2</v>
       </c>
       <c r="Y28" s="18">
-        <f t="shared" si="7"/>
-        <v>0.8571428571428571</v>
+        <f>COUNTIFS($C$2:$C$10000,W28,$J$2:$J$10000,"SB")/X28</f>
+        <v>0</v>
       </c>
       <c r="Z28" s="21">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f>COUNTIF(D$2:D$10000,W28)</f>
+        <v>4</v>
       </c>
       <c r="AA28" s="19">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f>COUNTIFS($D$2:$D$10000,W28,$J$2:$J$10000,"av")/Z28</f>
+        <v>0</v>
       </c>
       <c r="AB28" s="35">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>Z28+X28</f>
+        <v>6</v>
       </c>
       <c r="AC28" s="37">
-        <f t="shared" si="11"/>
-        <v>0.9</v>
+        <f>(IF(X28=0,0,X28*Y28)+IF(Z28=0,0,AA28*Z28))/(Z28+X28)</f>
+        <v>0</v>
       </c>
       <c r="AD28" s="35">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <f>AC28*AB28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -25587,11 +25587,11 @@
         <v>148</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>275</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>-21</v>
       </c>
       <c r="I29" s="5">
@@ -25599,11 +25599,11 @@
         <v>21</v>
       </c>
       <c r="J29" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>AV</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="L29" s="10">
@@ -25627,7 +25627,7 @@
         <v>2969</v>
       </c>
       <c r="Q29" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-120</v>
       </c>
       <c r="R29">
@@ -25639,35 +25639,35 @@
         <v>15.5</v>
       </c>
       <c r="W29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X29" s="20">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>COUNTIF(C$2:C$10000,W29)</f>
+        <v>2</v>
       </c>
       <c r="Y29" s="18">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
+        <f>COUNTIFS($C$2:$C$10000,W29,$J$2:$J$10000,"SB")/X29</f>
+        <v>0</v>
       </c>
       <c r="Z29" s="21">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>COUNTIF(D$2:D$10000,W29)</f>
+        <v>5</v>
       </c>
       <c r="AA29" s="19">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
+        <f>COUNTIFS($D$2:$D$10000,W29,$J$2:$J$10000,"av")/Z29</f>
+        <v>0</v>
       </c>
       <c r="AB29" s="35">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f>Z29+X29</f>
+        <v>7</v>
       </c>
       <c r="AC29" s="37">
-        <f t="shared" si="11"/>
-        <v>0.6</v>
+        <f>(IF(X29=0,0,X29*Y29)+IF(Z29=0,0,AA29*Z29))/(Z29+X29)</f>
+        <v>0</v>
       </c>
       <c r="AD29" s="35">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f>AC29*AB29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
@@ -25690,11 +25690,11 @@
         <v>89</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>167</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>-11</v>
       </c>
       <c r="I30" s="5">
@@ -25702,11 +25702,11 @@
         <v>11</v>
       </c>
       <c r="J30" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>AV</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>29</v>
       </c>
       <c r="L30" s="10">
@@ -25730,7 +25730,7 @@
         <v>3058</v>
       </c>
       <c r="Q30" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-131</v>
       </c>
       <c r="R30">
@@ -25742,35 +25742,35 @@
         <v>15</v>
       </c>
       <c r="W30" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="X30" s="20">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="Y30" s="18">
-        <f t="shared" si="7"/>
-        <v>0.75</v>
+        <f>COUNTIF(C$2:C$10000,W30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="18" t="e">
+        <f>COUNTIFS($C$2:$C$10000,W30,$J$2:$J$10000,"SB")/X30</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z30" s="21">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(D$2:D$10000,W30)</f>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="19">
+        <f>COUNTIFS($D$2:$D$10000,W30,$J$2:$J$10000,"av")/Z30</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="19" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AB30" s="35">
-        <f t="shared" si="10"/>
-        <v>8</v>
+        <f>Z30+X30</f>
+        <v>1</v>
       </c>
       <c r="AC30" s="37">
-        <f t="shared" si="11"/>
-        <v>0.75</v>
+        <f>(IF(X30=0,0,X30*Y30)+IF(Z30=0,0,AA30*Z30))/(Z30+X30)</f>
+        <v>0</v>
       </c>
       <c r="AD30" s="35">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f>AC30*AB30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -25793,11 +25793,11 @@
         <v>91</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>193</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="I31" s="5">
@@ -25805,11 +25805,11 @@
         <v>11</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>SB</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="L31" s="10">
@@ -25833,7 +25833,7 @@
         <v>3149</v>
       </c>
       <c r="Q31" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-120</v>
       </c>
       <c r="R31">
@@ -25865,11 +25865,11 @@
         <v>80</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>154</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>-6</v>
       </c>
       <c r="I32" s="5">
@@ -25877,11 +25877,11 @@
         <v>6</v>
       </c>
       <c r="J32" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>AV</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>31</v>
       </c>
       <c r="L32" s="10">
@@ -25905,7 +25905,7 @@
         <v>3229</v>
       </c>
       <c r="Q32" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-126</v>
       </c>
       <c r="R32">
@@ -25937,11 +25937,11 @@
         <v>74</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>153</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="I33" s="5">
@@ -25949,11 +25949,11 @@
         <v>5</v>
       </c>
       <c r="J33" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>SB</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>32</v>
       </c>
       <c r="L33" s="10">
@@ -25977,7 +25977,7 @@
         <v>3303</v>
       </c>
       <c r="Q33" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-121</v>
       </c>
       <c r="R33">
@@ -26025,11 +26025,11 @@
         <v>87</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>221</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
       <c r="I34" s="5">
@@ -26037,11 +26037,11 @@
         <v>47</v>
       </c>
       <c r="J34" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>SB</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>33</v>
       </c>
       <c r="L34" s="10">
@@ -26065,7 +26065,7 @@
         <v>3390</v>
       </c>
       <c r="Q34" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-74</v>
       </c>
       <c r="R34">
@@ -26097,11 +26097,11 @@
         <v>100</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>218</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="I35" s="5">
@@ -26109,11 +26109,11 @@
         <v>18</v>
       </c>
       <c r="J35" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>SB</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>34</v>
       </c>
       <c r="L35" s="10">
@@ -26137,7 +26137,7 @@
         <v>3490</v>
       </c>
       <c r="Q35" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-56</v>
       </c>
       <c r="R35">
@@ -26169,11 +26169,11 @@
         <v>84</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>174</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="I36" s="5">
@@ -26181,11 +26181,11 @@
         <v>6</v>
       </c>
       <c r="J36" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>SB</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>35</v>
       </c>
       <c r="L36" s="10">
@@ -26209,7 +26209,7 @@
         <v>3574</v>
       </c>
       <c r="Q36" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-50</v>
       </c>
       <c r="R36">
@@ -26241,11 +26241,11 @@
         <v>136</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>268</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>-4</v>
       </c>
       <c r="I37" s="5">
@@ -26253,11 +26253,11 @@
         <v>4</v>
       </c>
       <c r="J37" s="10" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="32"/>
         <v>AV</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>36</v>
       </c>
       <c r="L37" s="10">
@@ -26281,7 +26281,7 @@
         <v>3710</v>
       </c>
       <c r="Q37" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>-54</v>
       </c>
       <c r="R37">
@@ -26313,23 +26313,23 @@
         <v>111</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:G61" si="42">E38+F38</f>
+        <f t="shared" ref="G38:G61" si="35">E38+F38</f>
         <v>217</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ref="H38:H61" si="43">E38-F38</f>
+        <f t="shared" ref="H38:H61" si="36">E38-F38</f>
         <v>-5</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" ref="I38:I61" si="44">ABS(H38)</f>
+        <f t="shared" ref="I38:I61" si="37">ABS(H38)</f>
         <v>5</v>
       </c>
       <c r="J38" s="10" t="str">
-        <f t="shared" ref="J38:J58" si="45">IF(E38=F38,"T",IF(E38&gt;F38,"SB","AV"))</f>
+        <f t="shared" ref="J38:J58" si="38">IF(E38=F38,"T",IF(E38&gt;F38,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" ref="K38:K58" si="46">K37+1</f>
+        <f t="shared" ref="K38:K58" si="39">K37+1</f>
         <v>37</v>
       </c>
       <c r="L38" s="10">
@@ -26353,7 +26353,7 @@
         <v>3821</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" ref="Q38:Q58" si="47">O38-P38</f>
+        <f t="shared" ref="Q38:Q58" si="40">O38-P38</f>
         <v>-59</v>
       </c>
       <c r="R38">
@@ -26385,23 +26385,23 @@
         <v>91</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>207</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
       <c r="J39" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>38</v>
       </c>
       <c r="L39" s="10">
@@ -26425,7 +26425,7 @@
         <v>3912</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>-34</v>
       </c>
       <c r="R39">
@@ -26457,23 +26457,23 @@
         <v>95</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>188</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="J40" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>AV</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>39</v>
       </c>
       <c r="L40" s="10">
@@ -26497,7 +26497,7 @@
         <v>4007</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>-36</v>
       </c>
       <c r="R40">
@@ -26529,23 +26529,23 @@
         <v>72</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>168</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>24</v>
       </c>
       <c r="J41" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>40</v>
       </c>
       <c r="L41" s="10">
@@ -26569,7 +26569,7 @@
         <v>4079</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>-12</v>
       </c>
       <c r="R41">
@@ -26601,23 +26601,23 @@
         <v>93</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>206</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="J42" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K42" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>41</v>
       </c>
       <c r="L42" s="10">
@@ -26641,7 +26641,7 @@
         <v>4172</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="R42">
@@ -26673,23 +26673,23 @@
         <v>145</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>268</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-22</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>22</v>
       </c>
       <c r="J43" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>AV</v>
       </c>
       <c r="K43" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>42</v>
       </c>
       <c r="L43" s="10">
@@ -26713,7 +26713,7 @@
         <v>4317</v>
       </c>
       <c r="Q43" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>-14</v>
       </c>
       <c r="R43">
@@ -26745,23 +26745,23 @@
         <v>74</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>152</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="J44" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K44" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>43</v>
       </c>
       <c r="L44" s="10">
@@ -26785,7 +26785,7 @@
         <v>4391</v>
       </c>
       <c r="Q44" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>-10</v>
       </c>
       <c r="R44">
@@ -26817,23 +26817,23 @@
         <v>92</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>223</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>39</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>39</v>
       </c>
       <c r="J45" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K45" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>44</v>
       </c>
       <c r="L45" s="10">
@@ -26857,7 +26857,7 @@
         <v>4483</v>
       </c>
       <c r="Q45" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>29</v>
       </c>
       <c r="R45">
@@ -26889,23 +26889,23 @@
         <v>82</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>176</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="J46" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K46" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>45</v>
       </c>
       <c r="L46" s="10">
@@ -26929,7 +26929,7 @@
         <v>4565</v>
       </c>
       <c r="Q46" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>41</v>
       </c>
       <c r="R46">
@@ -26961,23 +26961,23 @@
         <v>119</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>243</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J47" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>46</v>
       </c>
       <c r="L47" s="10">
@@ -27001,7 +27001,7 @@
         <v>4684</v>
       </c>
       <c r="Q47" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>46</v>
       </c>
       <c r="R47">
@@ -27033,23 +27033,23 @@
         <v>119</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>259</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>21</v>
       </c>
       <c r="J48" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>47</v>
       </c>
       <c r="L48" s="10">
@@ -27073,7 +27073,7 @@
         <v>4803</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>67</v>
       </c>
       <c r="R48">
@@ -27105,23 +27105,23 @@
         <v>88</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>206</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>30</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>30</v>
       </c>
       <c r="J49" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K49" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>48</v>
       </c>
       <c r="L49" s="10">
@@ -27145,7 +27145,7 @@
         <v>4891</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>97</v>
       </c>
       <c r="R49">
@@ -27177,23 +27177,23 @@
         <v>99</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>197</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="J50" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>AV</v>
       </c>
       <c r="K50" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>49</v>
       </c>
       <c r="L50" s="10">
@@ -27217,7 +27217,7 @@
         <v>4990</v>
       </c>
       <c r="Q50" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>96</v>
       </c>
       <c r="R50">
@@ -27249,23 +27249,23 @@
         <v>101</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>182</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-20</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>20</v>
       </c>
       <c r="J51" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>AV</v>
       </c>
       <c r="K51" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="L51" s="10">
@@ -27289,7 +27289,7 @@
         <v>5091</v>
       </c>
       <c r="Q51" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>76</v>
       </c>
       <c r="R51">
@@ -27321,23 +27321,23 @@
         <v>61</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>163</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>41</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>41</v>
       </c>
       <c r="J52" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K52" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>51</v>
       </c>
       <c r="L52" s="10">
@@ -27361,7 +27361,7 @@
         <v>5152</v>
       </c>
       <c r="Q52" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>117</v>
       </c>
       <c r="R52">
@@ -27393,23 +27393,23 @@
         <v>110</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>254</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>34</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>34</v>
       </c>
       <c r="J53" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K53" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>52</v>
       </c>
       <c r="L53" s="10">
@@ -27433,7 +27433,7 @@
         <v>5262</v>
       </c>
       <c r="Q53" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>151</v>
       </c>
       <c r="R53">
@@ -27465,23 +27465,23 @@
         <v>82</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>198</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>34</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>34</v>
       </c>
       <c r="J54" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>53</v>
       </c>
       <c r="L54" s="10">
@@ -27505,7 +27505,7 @@
         <v>5344</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>185</v>
       </c>
       <c r="R54">
@@ -27537,23 +27537,23 @@
         <v>97</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>195</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="J55" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>SB</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>54</v>
       </c>
       <c r="L55" s="10">
@@ -27577,7 +27577,7 @@
         <v>5441</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>186</v>
       </c>
       <c r="R55">
@@ -27609,23 +27609,23 @@
         <v>90</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>178</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="J56" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>AV</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>55</v>
       </c>
       <c r="L56" s="10">
@@ -27649,7 +27649,7 @@
         <v>5531</v>
       </c>
       <c r="Q56" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>184</v>
       </c>
       <c r="R56">
@@ -27681,23 +27681,23 @@
         <v>111</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>214</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-8</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="J57" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>AV</v>
       </c>
       <c r="K57" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>56</v>
       </c>
       <c r="L57" s="10">
@@ -27721,7 +27721,7 @@
         <v>5642</v>
       </c>
       <c r="Q57" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>176</v>
       </c>
       <c r="R57">
@@ -27753,23 +27753,23 @@
         <v>105</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>205</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="J58" s="10" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="38"/>
         <v>AV</v>
       </c>
       <c r="K58" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="39"/>
         <v>57</v>
       </c>
       <c r="L58" s="10">
@@ -27793,7 +27793,7 @@
         <v>5747</v>
       </c>
       <c r="Q58" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>171</v>
       </c>
       <c r="R58">
@@ -27825,23 +27825,23 @@
         <v>75</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>153</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J59" s="10" t="str">
-        <f t="shared" ref="J59" si="48">IF(E59=F59,"T",IF(E59&gt;F59,"SB","AV"))</f>
+        <f t="shared" ref="J59" si="41">IF(E59=F59,"T",IF(E59&gt;F59,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" ref="K59" si="49">K58+1</f>
+        <f t="shared" ref="K59" si="42">K58+1</f>
         <v>58</v>
       </c>
       <c r="L59" s="10">
@@ -27865,7 +27865,7 @@
         <v>5822</v>
       </c>
       <c r="Q59" s="10">
-        <f t="shared" ref="Q59" si="50">O59-P59</f>
+        <f t="shared" ref="Q59" si="43">O59-P59</f>
         <v>174</v>
       </c>
       <c r="R59">
@@ -27897,23 +27897,23 @@
         <v>113</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>223</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>-3</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J60" s="10" t="str">
-        <f t="shared" ref="J60" si="51">IF(E60=F60,"T",IF(E60&gt;F60,"SB","AV"))</f>
+        <f t="shared" ref="J60" si="44">IF(E60=F60,"T",IF(E60&gt;F60,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K60" s="10">
-        <f t="shared" ref="K60" si="52">K59+1</f>
+        <f t="shared" ref="K60" si="45">K59+1</f>
         <v>59</v>
       </c>
       <c r="L60" s="10">
@@ -27937,7 +27937,7 @@
         <v>5935</v>
       </c>
       <c r="Q60" s="10">
-        <f t="shared" ref="Q60" si="53">O60-P60</f>
+        <f t="shared" ref="Q60" si="46">O60-P60</f>
         <v>171</v>
       </c>
       <c r="R60">
@@ -27969,23 +27969,23 @@
         <v>75</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>162</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="J61" s="10" t="str">
-        <f t="shared" ref="J61" si="54">IF(E61=F61,"T",IF(E61&gt;F61,"SB","AV"))</f>
+        <f t="shared" ref="J61" si="47">IF(E61=F61,"T",IF(E61&gt;F61,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K61" s="10">
-        <f t="shared" ref="K61" si="55">K60+1</f>
+        <f t="shared" ref="K61" si="48">K60+1</f>
         <v>60</v>
       </c>
       <c r="L61" s="10">
@@ -28009,7 +28009,7 @@
         <v>6010</v>
       </c>
       <c r="Q61" s="10">
-        <f t="shared" ref="Q61" si="56">O61-P61</f>
+        <f t="shared" ref="Q61" si="49">O61-P61</f>
         <v>183</v>
       </c>
       <c r="R61">
@@ -28041,23 +28041,23 @@
         <v>97</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" ref="G62:G72" si="57">E62+F62</f>
+        <f t="shared" ref="G62:G72" si="50">E62+F62</f>
         <v>205</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" ref="H62:H72" si="58">E62-F62</f>
+        <f t="shared" ref="H62:H72" si="51">E62-F62</f>
         <v>11</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" ref="I62:I72" si="59">ABS(H62)</f>
+        <f t="shared" ref="I62:I72" si="52">ABS(H62)</f>
         <v>11</v>
       </c>
       <c r="J62" s="10" t="str">
-        <f t="shared" ref="J62:J70" si="60">IF(E62=F62,"T",IF(E62&gt;F62,"SB","AV"))</f>
+        <f t="shared" ref="J62:J70" si="53">IF(E62=F62,"T",IF(E62&gt;F62,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" ref="K62:K70" si="61">K61+1</f>
+        <f t="shared" ref="K62:K70" si="54">K61+1</f>
         <v>61</v>
       </c>
       <c r="L62" s="10">
@@ -28081,7 +28081,7 @@
         <v>6107</v>
       </c>
       <c r="Q62" s="10">
-        <f t="shared" ref="Q62:Q70" si="62">O62-P62</f>
+        <f t="shared" ref="Q62:Q70" si="55">O62-P62</f>
         <v>194</v>
       </c>
       <c r="R62">
@@ -28113,23 +28113,23 @@
         <v>90</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>200</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>20</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>20</v>
       </c>
       <c r="J63" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>SB</v>
       </c>
       <c r="K63" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>62</v>
       </c>
       <c r="L63" s="10">
@@ -28153,7 +28153,7 @@
         <v>6197</v>
       </c>
       <c r="Q63" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>214</v>
       </c>
       <c r="R63">
@@ -28185,23 +28185,23 @@
         <v>110</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>203</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>-17</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>17</v>
       </c>
       <c r="J64" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>AV</v>
       </c>
       <c r="K64" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>63</v>
       </c>
       <c r="L64" s="10">
@@ -28225,7 +28225,7 @@
         <v>6307</v>
       </c>
       <c r="Q64" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>197</v>
       </c>
       <c r="R64">
@@ -28257,23 +28257,23 @@
         <v>144</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>284</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>-4</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="J65" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>AV</v>
       </c>
       <c r="K65" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>64</v>
       </c>
       <c r="L65" s="10">
@@ -28297,7 +28297,7 @@
         <v>6451</v>
       </c>
       <c r="Q65" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>193</v>
       </c>
       <c r="R65">
@@ -28329,23 +28329,23 @@
         <v>110</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>223</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="J66" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>SB</v>
       </c>
       <c r="K66" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>65</v>
       </c>
       <c r="L66" s="10">
@@ -28369,7 +28369,7 @@
         <v>6561</v>
       </c>
       <c r="Q66" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>196</v>
       </c>
       <c r="R66">
@@ -28401,27 +28401,27 @@
         <v>130</v>
       </c>
       <c r="G67" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>253</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>-7</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="J67" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>AV</v>
       </c>
       <c r="K67" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>66</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" ref="L67:L85" si="63">IF(J67="SB",1,0)</f>
+        <f t="shared" ref="L67:L85" si="56">IF(J67="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M67" s="10">
@@ -28441,7 +28441,7 @@
         <v>6691</v>
       </c>
       <c r="Q67" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>189</v>
       </c>
       <c r="R67">
@@ -28473,27 +28473,27 @@
         <v>85</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>180</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="J68" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>SB</v>
       </c>
       <c r="K68" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>67</v>
       </c>
       <c r="L68" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M68" s="10">
@@ -28513,7 +28513,7 @@
         <v>6776</v>
       </c>
       <c r="Q68" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>199</v>
       </c>
       <c r="R68">
@@ -28545,27 +28545,27 @@
         <v>99</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>222</v>
       </c>
       <c r="H69" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>24</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>24</v>
       </c>
       <c r="J69" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>SB</v>
       </c>
       <c r="K69" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>68</v>
       </c>
       <c r="L69" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M69" s="10">
@@ -28585,7 +28585,7 @@
         <v>6875</v>
       </c>
       <c r="Q69" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>223</v>
       </c>
       <c r="R69">
@@ -28617,27 +28617,27 @@
         <v>139</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>307</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>29</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>29</v>
       </c>
       <c r="J70" s="10" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="53"/>
         <v>SB</v>
       </c>
       <c r="K70" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="54"/>
         <v>69</v>
       </c>
       <c r="L70" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M70" s="10">
@@ -28657,7 +28657,7 @@
         <v>7014</v>
       </c>
       <c r="Q70" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="55"/>
         <v>252</v>
       </c>
       <c r="R70">
@@ -28689,27 +28689,27 @@
         <v>107</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>221</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="J71" s="10" t="str">
-        <f t="shared" ref="J71" si="64">IF(E71=F71,"T",IF(E71&gt;F71,"SB","AV"))</f>
+        <f t="shared" ref="J71" si="57">IF(E71=F71,"T",IF(E71&gt;F71,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K71" s="10">
-        <f t="shared" ref="K71" si="65">K70+1</f>
+        <f t="shared" ref="K71" si="58">K70+1</f>
         <v>70</v>
       </c>
       <c r="L71" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M71" s="10">
@@ -28729,7 +28729,7 @@
         <v>7121</v>
       </c>
       <c r="Q71" s="10">
-        <f t="shared" ref="Q71" si="66">O71-P71</f>
+        <f t="shared" ref="Q71" si="59">O71-P71</f>
         <v>259</v>
       </c>
       <c r="R71">
@@ -28761,27 +28761,27 @@
         <v>97</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>212</v>
       </c>
       <c r="H72" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="J72" s="10" t="str">
-        <f t="shared" ref="J72" si="67">IF(E72=F72,"T",IF(E72&gt;F72,"SB","AV"))</f>
+        <f t="shared" ref="J72" si="60">IF(E72=F72,"T",IF(E72&gt;F72,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K72" s="10">
-        <f t="shared" ref="K72" si="68">K71+1</f>
+        <f t="shared" ref="K72" si="61">K71+1</f>
         <v>71</v>
       </c>
       <c r="L72" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M72" s="10">
@@ -28801,7 +28801,7 @@
         <v>7218</v>
       </c>
       <c r="Q72" s="10">
-        <f t="shared" ref="Q72" si="69">O72-P72</f>
+        <f t="shared" ref="Q72" si="62">O72-P72</f>
         <v>277</v>
       </c>
       <c r="R72">
@@ -28833,27 +28833,27 @@
         <v>113</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" ref="G73:G78" si="70">E73+F73</f>
+        <f t="shared" ref="G73:G78" si="63">E73+F73</f>
         <v>204</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" ref="H73:H78" si="71">E73-F73</f>
+        <f t="shared" ref="H73:H78" si="64">E73-F73</f>
         <v>-22</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" ref="I73:I82" si="72">ABS(H73)</f>
+        <f t="shared" ref="I73:I82" si="65">ABS(H73)</f>
         <v>22</v>
       </c>
       <c r="J73" s="10" t="str">
-        <f t="shared" ref="J73:J78" si="73">IF(E73=F73,"T",IF(E73&gt;F73,"SB","AV"))</f>
+        <f t="shared" ref="J73:J78" si="66">IF(E73=F73,"T",IF(E73&gt;F73,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K73" s="10">
-        <f t="shared" ref="K73:K78" si="74">K72+1</f>
+        <f t="shared" ref="K73:K78" si="67">K72+1</f>
         <v>72</v>
       </c>
       <c r="L73" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M73" s="10">
@@ -28873,7 +28873,7 @@
         <v>7331</v>
       </c>
       <c r="Q73" s="10">
-        <f t="shared" ref="Q73:Q78" si="75">O73-P73</f>
+        <f t="shared" ref="Q73:Q78" si="68">O73-P73</f>
         <v>255</v>
       </c>
       <c r="R73">
@@ -28905,27 +28905,27 @@
         <v>102</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="63"/>
         <v>201</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="64"/>
         <v>-3</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="J74" s="10" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>AV</v>
       </c>
       <c r="K74" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>73</v>
       </c>
       <c r="L74" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M74" s="10">
@@ -28945,7 +28945,7 @@
         <v>7433</v>
       </c>
       <c r="Q74" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>252</v>
       </c>
       <c r="R74">
@@ -28977,27 +28977,27 @@
         <v>100</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="63"/>
         <v>233</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="64"/>
         <v>33</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>33</v>
       </c>
       <c r="J75" s="10" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>SB</v>
       </c>
       <c r="K75" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>74</v>
       </c>
       <c r="L75" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M75" s="10">
@@ -29017,7 +29017,7 @@
         <v>7533</v>
       </c>
       <c r="Q75" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>285</v>
       </c>
       <c r="R75">
@@ -29049,27 +29049,27 @@
         <v>87</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="63"/>
         <v>192</v>
       </c>
       <c r="H76" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="64"/>
         <v>18</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>18</v>
       </c>
       <c r="J76" s="10" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>SB</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>75</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M76" s="10">
@@ -29089,7 +29089,7 @@
         <v>7620</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>303</v>
       </c>
       <c r="R76">
@@ -29121,27 +29121,27 @@
         <v>99</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="63"/>
         <v>199</v>
       </c>
       <c r="H77" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="J77" s="10" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>SB</v>
       </c>
       <c r="K77" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>76</v>
       </c>
       <c r="L77" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M77" s="10">
@@ -29161,7 +29161,7 @@
         <v>7719</v>
       </c>
       <c r="Q77" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>304</v>
       </c>
       <c r="R77">
@@ -29193,27 +29193,27 @@
         <v>104</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="63"/>
         <v>225</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="64"/>
         <v>17</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>17</v>
       </c>
       <c r="J78" s="10" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="66"/>
         <v>SB</v>
       </c>
       <c r="K78" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="67"/>
         <v>77</v>
       </c>
       <c r="L78" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M78" s="10">
@@ -29233,7 +29233,7 @@
         <v>7823</v>
       </c>
       <c r="Q78" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>321</v>
       </c>
       <c r="R78">
@@ -29265,27 +29265,27 @@
         <v>76</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" ref="G79:G82" si="76">E79+F79</f>
+        <f t="shared" ref="G79:G82" si="69">E79+F79</f>
         <v>170</v>
       </c>
       <c r="H79" s="5">
-        <f t="shared" ref="H79:H82" si="77">E79-F79</f>
+        <f t="shared" ref="H79:H82" si="70">E79-F79</f>
         <v>18</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="65"/>
         <v>18</v>
       </c>
       <c r="J79" s="10" t="str">
-        <f t="shared" ref="J79" si="78">IF(E79=F79,"T",IF(E79&gt;F79,"SB","AV"))</f>
+        <f t="shared" ref="J79" si="71">IF(E79=F79,"T",IF(E79&gt;F79,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K79" s="10">
-        <f t="shared" ref="K79:K87" si="79">K78+1</f>
+        <f t="shared" ref="K79:K87" si="72">K78+1</f>
         <v>78</v>
       </c>
       <c r="L79" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M79" s="10">
@@ -29305,7 +29305,7 @@
         <v>7899</v>
       </c>
       <c r="Q79" s="10">
-        <f t="shared" ref="Q79" si="80">O79-P79</f>
+        <f t="shared" ref="Q79" si="73">O79-P79</f>
         <v>339</v>
       </c>
       <c r="R79">
@@ -29337,27 +29337,27 @@
         <v>105</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>239</v>
       </c>
       <c r="H80" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="70"/>
         <v>29</v>
       </c>
       <c r="I80" s="5">
+        <f t="shared" si="65"/>
+        <v>29</v>
+      </c>
+      <c r="J80" s="10" t="str">
+        <f t="shared" ref="J80" si="74">IF(E80=F80,"T",IF(E80&gt;F80,"SB","AV"))</f>
+        <v>SB</v>
+      </c>
+      <c r="K80" s="10">
         <f t="shared" si="72"/>
-        <v>29</v>
-      </c>
-      <c r="J80" s="10" t="str">
-        <f t="shared" ref="J80" si="81">IF(E80=F80,"T",IF(E80&gt;F80,"SB","AV"))</f>
-        <v>SB</v>
-      </c>
-      <c r="K80" s="10">
-        <f t="shared" si="79"/>
         <v>79</v>
       </c>
       <c r="L80" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M80" s="10">
@@ -29377,7 +29377,7 @@
         <v>8004</v>
       </c>
       <c r="Q80" s="10">
-        <f t="shared" ref="Q80" si="82">O80-P80</f>
+        <f t="shared" ref="Q80" si="75">O80-P80</f>
         <v>368</v>
       </c>
       <c r="R80">
@@ -29409,27 +29409,27 @@
         <v>105</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>206</v>
       </c>
       <c r="H81" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="70"/>
         <v>-4</v>
       </c>
       <c r="I81" s="5">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="J81" s="10" t="str">
+        <f t="shared" ref="J81" si="76">IF(E81=F81,"T",IF(E81&gt;F81,"SB","AV"))</f>
+        <v>AV</v>
+      </c>
+      <c r="K81" s="10">
         <f t="shared" si="72"/>
-        <v>4</v>
-      </c>
-      <c r="J81" s="10" t="str">
-        <f t="shared" ref="J81" si="83">IF(E81=F81,"T",IF(E81&gt;F81,"SB","AV"))</f>
-        <v>AV</v>
-      </c>
-      <c r="K81" s="10">
-        <f t="shared" si="79"/>
         <v>80</v>
       </c>
       <c r="L81" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M81" s="10">
@@ -29449,7 +29449,7 @@
         <v>8109</v>
       </c>
       <c r="Q81" s="10">
-        <f t="shared" ref="Q81" si="84">O81-P81</f>
+        <f t="shared" ref="Q81" si="77">O81-P81</f>
         <v>364</v>
       </c>
       <c r="R81">
@@ -29481,27 +29481,27 @@
         <v>86</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>188</v>
       </c>
       <c r="H82" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="70"/>
         <v>16</v>
       </c>
       <c r="I82" s="5">
+        <f t="shared" si="65"/>
+        <v>16</v>
+      </c>
+      <c r="J82" s="10" t="str">
+        <f t="shared" ref="J82" si="78">IF(E82=F82,"T",IF(E82&gt;F82,"SB","AV"))</f>
+        <v>SB</v>
+      </c>
+      <c r="K82" s="10">
         <f t="shared" si="72"/>
-        <v>16</v>
-      </c>
-      <c r="J82" s="10" t="str">
-        <f t="shared" ref="J82" si="85">IF(E82=F82,"T",IF(E82&gt;F82,"SB","AV"))</f>
-        <v>SB</v>
-      </c>
-      <c r="K82" s="10">
-        <f t="shared" si="79"/>
         <v>81</v>
       </c>
       <c r="L82" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M82" s="10">
@@ -29521,7 +29521,7 @@
         <v>8195</v>
       </c>
       <c r="Q82" s="10">
-        <f t="shared" ref="Q82" si="86">O82-P82</f>
+        <f t="shared" ref="Q82" si="79">O82-P82</f>
         <v>380</v>
       </c>
       <c r="R82">
@@ -29553,27 +29553,27 @@
         <v>76</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" ref="G83:G85" si="87">E83+F83</f>
+        <f t="shared" ref="G83:G85" si="80">E83+F83</f>
         <v>153</v>
       </c>
       <c r="H83" s="5">
-        <f t="shared" ref="H83:H85" si="88">E83-F83</f>
+        <f t="shared" ref="H83:H85" si="81">E83-F83</f>
         <v>1</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" ref="I83:I85" si="89">ABS(H83)</f>
+        <f t="shared" ref="I83:I85" si="82">ABS(H83)</f>
         <v>1</v>
       </c>
       <c r="J83" s="10" t="str">
-        <f t="shared" ref="J83:J87" si="90">IF(E83=F83,"T",IF(E83&gt;F83,"SB","AV"))</f>
+        <f t="shared" ref="J83:J87" si="83">IF(E83=F83,"T",IF(E83&gt;F83,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K83" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>82</v>
       </c>
       <c r="L83" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M83" s="10">
@@ -29593,7 +29593,7 @@
         <v>8271</v>
       </c>
       <c r="Q83" s="10">
-        <f t="shared" ref="Q83:Q84" si="91">O83-P83</f>
+        <f t="shared" ref="Q83:Q84" si="84">O83-P83</f>
         <v>381</v>
       </c>
       <c r="R83">
@@ -29625,27 +29625,27 @@
         <v>125</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="80"/>
         <v>300</v>
       </c>
       <c r="H84" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>50</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>50</v>
       </c>
       <c r="J84" s="10" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>SB</v>
       </c>
       <c r="K84" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>83</v>
       </c>
       <c r="L84" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M84" s="10">
@@ -29665,7 +29665,7 @@
         <v>8396</v>
       </c>
       <c r="Q84" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="84"/>
         <v>431</v>
       </c>
       <c r="R84">
@@ -29697,26 +29697,26 @@
         <v>94</v>
       </c>
       <c r="G85" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="80"/>
         <v>188</v>
       </c>
       <c r="H85" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="J85" s="46" t="s">
         <v>34</v>
       </c>
       <c r="K85" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>84</v>
       </c>
       <c r="L85" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M85" s="10">
@@ -29736,7 +29736,7 @@
         <v>8490</v>
       </c>
       <c r="Q85" s="10">
-        <f t="shared" ref="Q85" si="92">O85-P85</f>
+        <f t="shared" ref="Q85" si="85">O85-P85</f>
         <v>431</v>
       </c>
       <c r="R85">
@@ -29771,27 +29771,27 @@
         <v>96</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" ref="G86" si="93">E86+F86</f>
+        <f t="shared" ref="G86" si="86">E86+F86</f>
         <v>220</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" ref="H86" si="94">E86-F86</f>
+        <f t="shared" ref="H86" si="87">E86-F86</f>
         <v>28</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" ref="I86" si="95">ABS(H86)</f>
+        <f t="shared" ref="I86" si="88">ABS(H86)</f>
         <v>28</v>
       </c>
       <c r="J86" s="10" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>SB</v>
       </c>
       <c r="K86" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>85</v>
       </c>
       <c r="L86" s="10">
-        <f t="shared" ref="L86" si="96">IF(J86="SB",1,0)</f>
+        <f t="shared" ref="L86" si="89">IF(J86="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M86" s="10">
@@ -29811,7 +29811,7 @@
         <v>8586</v>
       </c>
       <c r="Q86" s="10">
-        <f t="shared" ref="Q86" si="97">O86-P86</f>
+        <f t="shared" ref="Q86" si="90">O86-P86</f>
         <v>459</v>
       </c>
       <c r="R86">
@@ -29843,27 +29843,27 @@
         <v>140</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" ref="G87" si="98">E87+F87</f>
+        <f t="shared" ref="G87" si="91">E87+F87</f>
         <v>277</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" ref="H87" si="99">E87-F87</f>
+        <f t="shared" ref="H87" si="92">E87-F87</f>
         <v>-3</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" ref="I87" si="100">ABS(H87)</f>
+        <f t="shared" ref="I87" si="93">ABS(H87)</f>
         <v>3</v>
       </c>
       <c r="J87" s="10" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="83"/>
         <v>AV</v>
       </c>
       <c r="K87" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="72"/>
         <v>86</v>
       </c>
       <c r="L87" s="10">
-        <f t="shared" ref="L87" si="101">IF(J87="SB",1,0)</f>
+        <f t="shared" ref="L87" si="94">IF(J87="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M87" s="10">
@@ -29883,7 +29883,7 @@
         <v>8726</v>
       </c>
       <c r="Q87" s="10">
-        <f t="shared" ref="Q87" si="102">O87-P87</f>
+        <f t="shared" ref="Q87" si="95">O87-P87</f>
         <v>456</v>
       </c>
       <c r="R87">
@@ -29915,27 +29915,27 @@
         <v>133</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" ref="G88:G96" si="103">E88+F88</f>
+        <f t="shared" ref="G88:G96" si="96">E88+F88</f>
         <v>276</v>
       </c>
       <c r="H88" s="5">
-        <f t="shared" ref="H88:H96" si="104">E88-F88</f>
+        <f t="shared" ref="H88:H96" si="97">E88-F88</f>
         <v>10</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" ref="I88:I95" si="105">ABS(H88)</f>
+        <f t="shared" ref="I88:I95" si="98">ABS(H88)</f>
         <v>10</v>
       </c>
       <c r="J88" s="10" t="str">
-        <f t="shared" ref="J88:J93" si="106">IF(E88=F88,"T",IF(E88&gt;F88,"SB","AV"))</f>
+        <f t="shared" ref="J88:J93" si="99">IF(E88=F88,"T",IF(E88&gt;F88,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K88" s="10">
-        <f t="shared" ref="K88:K93" si="107">K87+1</f>
+        <f t="shared" ref="K88:K93" si="100">K87+1</f>
         <v>87</v>
       </c>
       <c r="L88" s="10">
-        <f t="shared" ref="L88:L93" si="108">IF(J88="SB",1,0)</f>
+        <f t="shared" ref="L88:L93" si="101">IF(J88="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M88" s="10">
@@ -29955,7 +29955,7 @@
         <v>8859</v>
       </c>
       <c r="Q88" s="10">
-        <f t="shared" ref="Q88:Q93" si="109">O88-P88</f>
+        <f t="shared" ref="Q88:Q93" si="102">O88-P88</f>
         <v>466</v>
       </c>
       <c r="R88">
@@ -29987,27 +29987,27 @@
         <v>108</v>
       </c>
       <c r="G89" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>248</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="97"/>
         <v>32</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="98"/>
         <v>32</v>
       </c>
       <c r="J89" s="10" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="99"/>
         <v>SB</v>
       </c>
       <c r="K89" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="100"/>
         <v>88</v>
       </c>
       <c r="L89" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="M89" s="10">
@@ -30027,7 +30027,7 @@
         <v>8967</v>
       </c>
       <c r="Q89" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="102"/>
         <v>498</v>
       </c>
       <c r="R89">
@@ -30059,27 +30059,27 @@
         <v>109</v>
       </c>
       <c r="G90" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>223</v>
       </c>
       <c r="H90" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="97"/>
         <v>5</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="98"/>
         <v>5</v>
       </c>
       <c r="J90" s="10" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="99"/>
         <v>SB</v>
       </c>
       <c r="K90" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="100"/>
         <v>89</v>
       </c>
       <c r="L90" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="M90" s="10">
@@ -30099,7 +30099,7 @@
         <v>9076</v>
       </c>
       <c r="Q90" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="102"/>
         <v>503</v>
       </c>
       <c r="R90">
@@ -30131,27 +30131,27 @@
         <v>101</v>
       </c>
       <c r="G91" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>227</v>
       </c>
       <c r="H91" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="97"/>
         <v>25</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="98"/>
         <v>25</v>
       </c>
       <c r="J91" s="10" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="99"/>
         <v>SB</v>
       </c>
       <c r="K91" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="100"/>
         <v>90</v>
       </c>
       <c r="L91" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="M91" s="10">
@@ -30171,7 +30171,7 @@
         <v>9177</v>
       </c>
       <c r="Q91" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="102"/>
         <v>528</v>
       </c>
       <c r="R91">
@@ -30203,27 +30203,27 @@
         <v>94</v>
       </c>
       <c r="G92" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>181</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="97"/>
         <v>-7</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="98"/>
         <v>7</v>
       </c>
       <c r="J92" s="10" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="99"/>
         <v>AV</v>
       </c>
       <c r="K92" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="100"/>
         <v>91</v>
       </c>
       <c r="L92" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="M92" s="10">
@@ -30243,7 +30243,7 @@
         <v>9271</v>
       </c>
       <c r="Q92" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="102"/>
         <v>521</v>
       </c>
       <c r="R92">
@@ -30275,27 +30275,27 @@
         <v>105</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>218</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="97"/>
         <v>8</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="98"/>
         <v>8</v>
       </c>
       <c r="J93" s="10" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="99"/>
         <v>SB</v>
       </c>
       <c r="K93" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="100"/>
         <v>92</v>
       </c>
       <c r="L93" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="M93" s="10">
@@ -30315,7 +30315,7 @@
         <v>9376</v>
       </c>
       <c r="Q93" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="102"/>
         <v>529</v>
       </c>
       <c r="R93">
@@ -30347,27 +30347,27 @@
         <v>130</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>264</v>
       </c>
       <c r="H94" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="97"/>
         <v>4</v>
       </c>
       <c r="I94" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="98"/>
         <v>4</v>
       </c>
       <c r="J94" s="10" t="str">
-        <f t="shared" ref="J94" si="110">IF(E94=F94,"T",IF(E94&gt;F94,"SB","AV"))</f>
+        <f t="shared" ref="J94" si="103">IF(E94=F94,"T",IF(E94&gt;F94,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K94" s="10">
-        <f t="shared" ref="K94:K96" si="111">K93+1</f>
+        <f t="shared" ref="K94:K96" si="104">K93+1</f>
         <v>93</v>
       </c>
       <c r="L94" s="10">
-        <f t="shared" ref="L94" si="112">IF(J94="SB",1,0)</f>
+        <f t="shared" ref="L94" si="105">IF(J94="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M94" s="10">
@@ -30387,7 +30387,7 @@
         <v>9506</v>
       </c>
       <c r="Q94" s="10">
-        <f t="shared" ref="Q94" si="113">O94-P94</f>
+        <f t="shared" ref="Q94" si="106">O94-P94</f>
         <v>533</v>
       </c>
       <c r="R94">
@@ -30419,27 +30419,27 @@
         <v>122</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>282</v>
       </c>
       <c r="H95" s="5">
+        <f t="shared" si="97"/>
+        <v>38</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="98"/>
+        <v>38</v>
+      </c>
+      <c r="J95" s="10" t="str">
+        <f t="shared" ref="J95" si="107">IF(E95=F95,"T",IF(E95&gt;F95,"SB","AV"))</f>
+        <v>SB</v>
+      </c>
+      <c r="K95" s="10">
         <f t="shared" si="104"/>
-        <v>38</v>
-      </c>
-      <c r="I95" s="5">
-        <f t="shared" si="105"/>
-        <v>38</v>
-      </c>
-      <c r="J95" s="10" t="str">
-        <f t="shared" ref="J95" si="114">IF(E95=F95,"T",IF(E95&gt;F95,"SB","AV"))</f>
-        <v>SB</v>
-      </c>
-      <c r="K95" s="10">
-        <f t="shared" si="111"/>
         <v>94</v>
       </c>
       <c r="L95" s="10">
-        <f t="shared" ref="L95" si="115">IF(J95="SB",1,0)</f>
+        <f t="shared" ref="L95" si="108">IF(J95="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M95" s="10">
@@ -30459,7 +30459,7 @@
         <v>9628</v>
       </c>
       <c r="Q95" s="10">
-        <f t="shared" ref="Q95" si="116">O95-P95</f>
+        <f t="shared" ref="Q95" si="109">O95-P95</f>
         <v>571</v>
       </c>
       <c r="R95">
@@ -30491,27 +30491,27 @@
         <v>95</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="96"/>
         <v>239</v>
       </c>
       <c r="H96" s="5">
+        <f t="shared" si="97"/>
+        <v>49</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" ref="I96" si="110">ABS(H96)</f>
+        <v>49</v>
+      </c>
+      <c r="J96" s="10" t="str">
+        <f t="shared" ref="J96" si="111">IF(E96=F96,"T",IF(E96&gt;F96,"SB","AV"))</f>
+        <v>SB</v>
+      </c>
+      <c r="K96" s="10">
         <f t="shared" si="104"/>
-        <v>49</v>
-      </c>
-      <c r="I96" s="5">
-        <f t="shared" ref="I96" si="117">ABS(H96)</f>
-        <v>49</v>
-      </c>
-      <c r="J96" s="10" t="str">
-        <f t="shared" ref="J96" si="118">IF(E96=F96,"T",IF(E96&gt;F96,"SB","AV"))</f>
-        <v>SB</v>
-      </c>
-      <c r="K96" s="10">
-        <f t="shared" si="111"/>
         <v>95</v>
       </c>
       <c r="L96" s="10">
-        <f t="shared" ref="L96" si="119">IF(J96="SB",1,0)</f>
+        <f t="shared" ref="L96" si="112">IF(J96="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M96" s="10">
@@ -30531,7 +30531,7 @@
         <v>9723</v>
       </c>
       <c r="Q96" s="10">
-        <f t="shared" ref="Q96" si="120">O96-P96</f>
+        <f t="shared" ref="Q96" si="113">O96-P96</f>
         <v>620</v>
       </c>
       <c r="R96">
@@ -30563,27 +30563,27 @@
         <v>163</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" ref="G97:G107" si="121">E97+F97</f>
+        <f t="shared" ref="G97:G107" si="114">E97+F97</f>
         <v>293</v>
       </c>
       <c r="H97" s="5">
-        <f t="shared" ref="H97:H107" si="122">E97-F97</f>
+        <f t="shared" ref="H97:H107" si="115">E97-F97</f>
         <v>-33</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" ref="I97:I107" si="123">ABS(H97)</f>
+        <f t="shared" ref="I97:I107" si="116">ABS(H97)</f>
         <v>33</v>
       </c>
       <c r="J97" s="10" t="str">
-        <f t="shared" ref="J97:J102" si="124">IF(E97=F97,"T",IF(E97&gt;F97,"SB","AV"))</f>
+        <f t="shared" ref="J97:J102" si="117">IF(E97=F97,"T",IF(E97&gt;F97,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K97" s="10">
-        <f t="shared" ref="K97:K105" si="125">K96+1</f>
+        <f t="shared" ref="K97:K105" si="118">K96+1</f>
         <v>96</v>
       </c>
       <c r="L97" s="10">
-        <f t="shared" ref="L97:L105" si="126">IF(J97="SB",1,0)</f>
+        <f t="shared" ref="L97:L105" si="119">IF(J97="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M97" s="10">
@@ -30603,7 +30603,7 @@
         <v>9886</v>
       </c>
       <c r="Q97" s="10">
-        <f t="shared" ref="Q97:Q105" si="127">O97-P97</f>
+        <f t="shared" ref="Q97:Q105" si="120">O97-P97</f>
         <v>587</v>
       </c>
       <c r="R97">
@@ -30635,27 +30635,27 @@
         <v>113</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>248</v>
       </c>
       <c r="H98" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>22</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>22</v>
       </c>
       <c r="J98" s="10" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>SB</v>
       </c>
       <c r="K98" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>97</v>
       </c>
       <c r="L98" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="M98" s="10">
@@ -30675,7 +30675,7 @@
         <v>9999</v>
       </c>
       <c r="Q98" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>609</v>
       </c>
       <c r="R98">
@@ -30707,27 +30707,27 @@
         <v>118</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>239</v>
       </c>
       <c r="H99" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>3</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>3</v>
       </c>
       <c r="J99" s="10" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>SB</v>
       </c>
       <c r="K99" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>98</v>
       </c>
       <c r="L99" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="M99" s="10">
@@ -30747,7 +30747,7 @@
         <v>10117</v>
       </c>
       <c r="Q99" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>612</v>
       </c>
       <c r="R99">
@@ -30779,27 +30779,27 @@
         <v>99</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>208</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>10</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>10</v>
       </c>
       <c r="J100" s="10" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>SB</v>
       </c>
       <c r="K100" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>99</v>
       </c>
       <c r="L100" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="M100" s="10">
@@ -30819,7 +30819,7 @@
         <v>10216</v>
       </c>
       <c r="Q100" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>622</v>
       </c>
       <c r="R100">
@@ -30851,27 +30851,27 @@
         <v>82</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>179</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>15</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>15</v>
       </c>
       <c r="J101" s="10" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>SB</v>
       </c>
       <c r="K101" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="L101" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="M101" s="10">
@@ -30891,7 +30891,7 @@
         <v>10298</v>
       </c>
       <c r="Q101" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>637</v>
       </c>
       <c r="R101">
@@ -30923,27 +30923,27 @@
         <v>88</v>
       </c>
       <c r="G102" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>184</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>8</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>8</v>
       </c>
       <c r="J102" s="10" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>SB</v>
       </c>
       <c r="K102" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>101</v>
       </c>
       <c r="L102" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="M102" s="10">
@@ -30963,7 +30963,7 @@
         <v>10386</v>
       </c>
       <c r="Q102" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>645</v>
       </c>
       <c r="R102">
@@ -30995,26 +30995,26 @@
         <v>118</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>236</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="J103" s="46" t="s">
         <v>34</v>
       </c>
       <c r="K103" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>102</v>
       </c>
       <c r="L103" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="M103" s="10">
@@ -31034,7 +31034,7 @@
         <v>10504</v>
       </c>
       <c r="Q103" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>645</v>
       </c>
       <c r="R103">
@@ -31069,15 +31069,15 @@
         <v>127</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>248</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>-6</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>6</v>
       </c>
       <c r="J104" s="10" t="str">
@@ -31085,11 +31085,11 @@
         <v>AV</v>
       </c>
       <c r="K104" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>103</v>
       </c>
       <c r="L104" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="M104" s="10">
@@ -31109,7 +31109,7 @@
         <v>10631</v>
       </c>
       <c r="Q104" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>639</v>
       </c>
       <c r="R104">
@@ -31141,26 +31141,26 @@
         <v>110</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>220</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="J105" s="46" t="s">
         <v>35</v>
       </c>
       <c r="K105" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="118"/>
         <v>104</v>
       </c>
       <c r="L105" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="M105" s="10">
@@ -31180,7 +31180,7 @@
         <v>10741</v>
       </c>
       <c r="Q105" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>639</v>
       </c>
       <c r="R105">
@@ -31215,27 +31215,27 @@
         <v>104</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="114"/>
         <v>237</v>
       </c>
       <c r="H106" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>29</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>29</v>
       </c>
       <c r="J106" s="10" t="str">
-        <f t="shared" ref="J106:J116" si="128">IF(E106=F106,"T",IF(E106&gt;F106,"SB","AV"))</f>
+        <f t="shared" ref="J106:J116" si="121">IF(E106=F106,"T",IF(E106&gt;F106,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K106" s="10">
-        <f t="shared" ref="K106:K107" si="129">K105+1</f>
+        <f t="shared" ref="K106:K107" si="122">K105+1</f>
         <v>105</v>
       </c>
       <c r="L106" s="10">
-        <f t="shared" ref="L106" si="130">IF(J106="SB",1,0)</f>
+        <f t="shared" ref="L106" si="123">IF(J106="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M106" s="10">
@@ -31255,7 +31255,7 @@
         <v>10845</v>
       </c>
       <c r="Q106" s="10">
-        <f t="shared" ref="Q106" si="131">O106-P106</f>
+        <f t="shared" ref="Q106" si="124">O106-P106</f>
         <v>668</v>
       </c>
       <c r="R106">
@@ -31287,27 +31287,27 @@
         <v>106</v>
       </c>
       <c r="G107" s="5">
+        <f t="shared" si="114"/>
+        <v>237</v>
+      </c>
+      <c r="H107" s="5">
+        <f t="shared" si="115"/>
+        <v>25</v>
+      </c>
+      <c r="I107" s="5">
+        <f t="shared" si="116"/>
+        <v>25</v>
+      </c>
+      <c r="J107" s="10" t="str">
         <f t="shared" si="121"/>
-        <v>237</v>
-      </c>
-      <c r="H107" s="5">
+        <v>SB</v>
+      </c>
+      <c r="K107" s="10">
         <f t="shared" si="122"/>
-        <v>25</v>
-      </c>
-      <c r="I107" s="5">
-        <f t="shared" si="123"/>
-        <v>25</v>
-      </c>
-      <c r="J107" s="10" t="str">
-        <f t="shared" si="128"/>
-        <v>SB</v>
-      </c>
-      <c r="K107" s="10">
-        <f t="shared" si="129"/>
         <v>106</v>
       </c>
       <c r="L107" s="10">
-        <f t="shared" ref="L107" si="132">IF(J107="SB",1,0)</f>
+        <f t="shared" ref="L107" si="125">IF(J107="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M107" s="10">
@@ -31327,7 +31327,7 @@
         <v>10951</v>
       </c>
       <c r="Q107" s="10">
-        <f t="shared" ref="Q107" si="133">O107-P107</f>
+        <f t="shared" ref="Q107" si="126">O107-P107</f>
         <v>693</v>
       </c>
       <c r="R107">
@@ -31359,27 +31359,27 @@
         <v>122</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" ref="G108:G127" si="134">E108+F108</f>
+        <f t="shared" ref="G108:G127" si="127">E108+F108</f>
         <v>236</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" ref="H108:H125" si="135">E108-F108</f>
+        <f t="shared" ref="H108:H125" si="128">E108-F108</f>
         <v>-8</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" ref="I108:I125" si="136">ABS(H108)</f>
+        <f t="shared" ref="I108:I125" si="129">ABS(H108)</f>
         <v>8</v>
       </c>
       <c r="J108" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>AV</v>
       </c>
       <c r="K108" s="10">
-        <f t="shared" ref="K108:K130" si="137">K107+1</f>
+        <f t="shared" ref="K108:K130" si="130">K107+1</f>
         <v>107</v>
       </c>
       <c r="L108" s="10">
-        <f t="shared" ref="L108:L125" si="138">IF(J108="SB",1,0)</f>
+        <f t="shared" ref="L108:L125" si="131">IF(J108="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M108" s="10">
@@ -31399,7 +31399,7 @@
         <v>11073</v>
       </c>
       <c r="Q108" s="10">
-        <f t="shared" ref="Q108:Q125" si="139">O108-P108</f>
+        <f t="shared" ref="Q108:Q125" si="132">O108-P108</f>
         <v>685</v>
       </c>
       <c r="R108">
@@ -31431,27 +31431,27 @@
         <v>113</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>252</v>
       </c>
       <c r="H109" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>26</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>26</v>
       </c>
       <c r="J109" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>SB</v>
       </c>
       <c r="K109" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>108</v>
       </c>
       <c r="L109" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M109" s="10">
@@ -31471,7 +31471,7 @@
         <v>11186</v>
       </c>
       <c r="Q109" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>711</v>
       </c>
       <c r="R109">
@@ -31503,27 +31503,27 @@
         <v>108</v>
       </c>
       <c r="G110" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>222</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>6</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>6</v>
       </c>
       <c r="J110" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>SB</v>
       </c>
       <c r="K110" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>109</v>
       </c>
       <c r="L110" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M110" s="10">
@@ -31543,7 +31543,7 @@
         <v>11294</v>
       </c>
       <c r="Q110" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>717</v>
       </c>
       <c r="R110">
@@ -31575,27 +31575,27 @@
         <v>121</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>219</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>-23</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>23</v>
       </c>
       <c r="J111" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>AV</v>
       </c>
       <c r="K111" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>110</v>
       </c>
       <c r="L111" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="M111" s="10">
@@ -31615,7 +31615,7 @@
         <v>11415</v>
       </c>
       <c r="Q111" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>694</v>
       </c>
       <c r="R111">
@@ -31647,27 +31647,27 @@
         <v>99</v>
       </c>
       <c r="G112" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>202</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>4</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>4</v>
       </c>
       <c r="J112" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>SB</v>
       </c>
       <c r="K112" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>111</v>
       </c>
       <c r="L112" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M112" s="10">
@@ -31687,7 +31687,7 @@
         <v>11514</v>
       </c>
       <c r="Q112" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>698</v>
       </c>
       <c r="R112">
@@ -31719,27 +31719,27 @@
         <v>116</v>
       </c>
       <c r="G113" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>221</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>-11</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>11</v>
       </c>
       <c r="J113" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>AV</v>
       </c>
       <c r="K113" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>112</v>
       </c>
       <c r="L113" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="M113" s="10">
@@ -31759,7 +31759,7 @@
         <v>11630</v>
       </c>
       <c r="Q113" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>687</v>
       </c>
       <c r="R113">
@@ -31791,27 +31791,27 @@
         <v>138</v>
       </c>
       <c r="G114" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>293</v>
       </c>
       <c r="H114" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>17</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>17</v>
       </c>
       <c r="J114" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>SB</v>
       </c>
       <c r="K114" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>113</v>
       </c>
       <c r="L114" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M114" s="10">
@@ -31831,7 +31831,7 @@
         <v>11768</v>
       </c>
       <c r="Q114" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>704</v>
       </c>
       <c r="R114">
@@ -31863,27 +31863,27 @@
         <v>108</v>
       </c>
       <c r="G115" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>212</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>-4</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>4</v>
       </c>
       <c r="J115" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>AV</v>
       </c>
       <c r="K115" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>114</v>
       </c>
       <c r="L115" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="M115" s="10">
@@ -31903,7 +31903,7 @@
         <v>11876</v>
       </c>
       <c r="Q115" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>700</v>
       </c>
       <c r="R115">
@@ -31935,27 +31935,27 @@
         <v>107</v>
       </c>
       <c r="G116" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>223</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>9</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>9</v>
       </c>
       <c r="J116" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>SB</v>
       </c>
       <c r="K116" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>115</v>
       </c>
       <c r="L116" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M116" s="10">
@@ -31975,7 +31975,7 @@
         <v>11983</v>
       </c>
       <c r="Q116" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>709</v>
       </c>
       <c r="R116">
@@ -32007,27 +32007,27 @@
         <v>87</v>
       </c>
       <c r="G117" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>182</v>
       </c>
       <c r="H117" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>8</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>8</v>
       </c>
       <c r="J117" s="10" t="str">
-        <f t="shared" ref="J117:J125" si="140">IF(E117=F117,"T",IF(E117&gt;F117,"SB","AV"))</f>
+        <f t="shared" ref="J117:J125" si="133">IF(E117=F117,"T",IF(E117&gt;F117,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K117" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>116</v>
       </c>
       <c r="L117" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M117" s="10">
@@ -32047,7 +32047,7 @@
         <v>12070</v>
       </c>
       <c r="Q117" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>717</v>
       </c>
       <c r="R117">
@@ -32079,27 +32079,27 @@
         <v>91</v>
       </c>
       <c r="G118" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>218</v>
       </c>
       <c r="H118" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>36</v>
       </c>
       <c r="J118" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K118" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>117</v>
       </c>
       <c r="L118" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M118" s="10">
@@ -32119,7 +32119,7 @@
         <v>12161</v>
       </c>
       <c r="Q118" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>753</v>
       </c>
       <c r="R118">
@@ -32151,27 +32151,27 @@
         <v>94</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>231</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>43</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>43</v>
       </c>
       <c r="J119" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K119" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>118</v>
       </c>
       <c r="L119" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M119" s="10">
@@ -32191,7 +32191,7 @@
         <v>12255</v>
       </c>
       <c r="Q119" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>796</v>
       </c>
       <c r="R119">
@@ -32223,27 +32223,27 @@
         <v>127</v>
       </c>
       <c r="G120" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>266</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>12</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>12</v>
       </c>
       <c r="J120" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K120" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>119</v>
       </c>
       <c r="L120" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M120" s="10">
@@ -32263,7 +32263,7 @@
         <v>12382</v>
       </c>
       <c r="Q120" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>808</v>
       </c>
       <c r="R120">
@@ -32295,27 +32295,27 @@
         <v>67</v>
       </c>
       <c r="G121" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>196</v>
       </c>
       <c r="H121" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>62</v>
       </c>
       <c r="I121" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>62</v>
       </c>
       <c r="J121" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K121" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>120</v>
       </c>
       <c r="L121" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M121" s="10">
@@ -32335,7 +32335,7 @@
         <v>12449</v>
       </c>
       <c r="Q121" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>870</v>
       </c>
       <c r="R121">
@@ -32367,27 +32367,27 @@
         <v>105</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>219</v>
       </c>
       <c r="H122" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>9</v>
       </c>
       <c r="I122" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>9</v>
       </c>
       <c r="J122" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K122" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>121</v>
       </c>
       <c r="L122" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M122" s="10">
@@ -32407,7 +32407,7 @@
         <v>12554</v>
       </c>
       <c r="Q122" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>879</v>
       </c>
       <c r="R122">
@@ -32439,27 +32439,27 @@
         <v>77</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>188</v>
       </c>
       <c r="H123" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>34</v>
       </c>
       <c r="I123" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>34</v>
       </c>
       <c r="J123" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K123" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>122</v>
       </c>
       <c r="L123" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M123" s="10">
@@ -32479,7 +32479,7 @@
         <v>12631</v>
       </c>
       <c r="Q123" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>913</v>
       </c>
       <c r="R123">
@@ -32511,27 +32511,27 @@
         <v>109</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>232</v>
       </c>
       <c r="H124" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>14</v>
       </c>
       <c r="I124" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>14</v>
       </c>
       <c r="J124" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K124" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>123</v>
       </c>
       <c r="L124" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M124" s="10">
@@ -32551,7 +32551,7 @@
         <v>12740</v>
       </c>
       <c r="Q124" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>927</v>
       </c>
       <c r="R124">
@@ -32583,27 +32583,27 @@
         <v>111</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>241</v>
       </c>
       <c r="H125" s="5">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>19</v>
       </c>
       <c r="I125" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>19</v>
       </c>
       <c r="J125" s="10" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="133"/>
         <v>SB</v>
       </c>
       <c r="K125" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>124</v>
       </c>
       <c r="L125" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="131"/>
         <v>1</v>
       </c>
       <c r="M125" s="10">
@@ -32623,7 +32623,7 @@
         <v>12851</v>
       </c>
       <c r="Q125" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="132"/>
         <v>946</v>
       </c>
       <c r="R125">
@@ -32655,27 +32655,27 @@
         <v>127</v>
       </c>
       <c r="G126" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>248</v>
       </c>
       <c r="H126" s="5">
-        <f t="shared" ref="H126:H127" si="141">E126-F126</f>
+        <f t="shared" ref="H126:H127" si="134">E126-F126</f>
         <v>-6</v>
       </c>
       <c r="I126" s="5">
-        <f t="shared" ref="I126:I127" si="142">ABS(H126)</f>
+        <f t="shared" ref="I126:I127" si="135">ABS(H126)</f>
         <v>6</v>
       </c>
       <c r="J126" s="10" t="str">
-        <f t="shared" ref="J126:J127" si="143">IF(E126=F126,"T",IF(E126&gt;F126,"SB","AV"))</f>
+        <f t="shared" ref="J126:J127" si="136">IF(E126=F126,"T",IF(E126&gt;F126,"SB","AV"))</f>
         <v>AV</v>
       </c>
       <c r="K126" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>125</v>
       </c>
       <c r="L126" s="10">
-        <f t="shared" ref="L126" si="144">IF(J126="SB",1,0)</f>
+        <f t="shared" ref="L126" si="137">IF(J126="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M126" s="10">
@@ -32695,7 +32695,7 @@
         <v>12978</v>
       </c>
       <c r="Q126" s="10">
-        <f t="shared" ref="Q126" si="145">O126-P126</f>
+        <f t="shared" ref="Q126" si="138">O126-P126</f>
         <v>940</v>
       </c>
       <c r="R126">
@@ -32727,27 +32727,27 @@
         <v>114</v>
       </c>
       <c r="G127" s="5">
+        <f t="shared" si="127"/>
+        <v>225</v>
+      </c>
+      <c r="H127" s="5">
         <f t="shared" si="134"/>
-        <v>225</v>
-      </c>
-      <c r="H127" s="5">
-        <f t="shared" si="141"/>
         <v>-3</v>
       </c>
       <c r="I127" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="135"/>
         <v>3</v>
       </c>
       <c r="J127" s="10" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="136"/>
         <v>AV</v>
       </c>
       <c r="K127" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>126</v>
       </c>
       <c r="L127" s="10">
-        <f t="shared" ref="L127" si="146">IF(J127="SB",1,0)</f>
+        <f t="shared" ref="L127" si="139">IF(J127="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M127" s="10">
@@ -32767,7 +32767,7 @@
         <v>13092</v>
       </c>
       <c r="Q127" s="10">
-        <f t="shared" ref="Q127" si="147">O127-P127</f>
+        <f t="shared" ref="Q127" si="140">O127-P127</f>
         <v>937</v>
       </c>
       <c r="R127">
@@ -32799,27 +32799,27 @@
         <v>90</v>
       </c>
       <c r="G128" s="5">
-        <f t="shared" ref="G128:G130" si="148">E128+F128</f>
+        <f t="shared" ref="G128:G130" si="141">E128+F128</f>
         <v>196</v>
       </c>
       <c r="H128" s="5">
-        <f t="shared" ref="H128:H130" si="149">E128-F128</f>
+        <f t="shared" ref="H128:H130" si="142">E128-F128</f>
         <v>16</v>
       </c>
       <c r="I128" s="5">
-        <f t="shared" ref="I128:I130" si="150">ABS(H128)</f>
+        <f t="shared" ref="I128:I130" si="143">ABS(H128)</f>
         <v>16</v>
       </c>
       <c r="J128" s="10" t="str">
-        <f t="shared" ref="J128:J130" si="151">IF(E128=F128,"T",IF(E128&gt;F128,"SB","AV"))</f>
+        <f t="shared" ref="J128:J130" si="144">IF(E128=F128,"T",IF(E128&gt;F128,"SB","AV"))</f>
         <v>SB</v>
       </c>
       <c r="K128" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>127</v>
       </c>
       <c r="L128" s="10">
-        <f t="shared" ref="L128" si="152">IF(J128="SB",1,0)</f>
+        <f t="shared" ref="L128" si="145">IF(J128="SB",1,0)</f>
         <v>1</v>
       </c>
       <c r="M128" s="10">
@@ -32839,7 +32839,7 @@
         <v>13182</v>
       </c>
       <c r="Q128" s="10">
-        <f t="shared" ref="Q128" si="153">O128-P128</f>
+        <f t="shared" ref="Q128" si="146">O128-P128</f>
         <v>953</v>
       </c>
       <c r="R128">
@@ -32871,27 +32871,27 @@
         <v>112</v>
       </c>
       <c r="G129" s="5">
-        <f t="shared" si="148"/>
+        <f t="shared" si="141"/>
         <v>219</v>
       </c>
       <c r="H129" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="142"/>
         <v>-5</v>
       </c>
       <c r="I129" s="5">
-        <f t="shared" si="150"/>
+        <f t="shared" si="143"/>
         <v>5</v>
       </c>
       <c r="J129" s="10" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>AV</v>
       </c>
       <c r="K129" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>128</v>
       </c>
       <c r="L129" s="10">
-        <f t="shared" ref="L129:L130" si="154">IF(J129="SB",1,0)</f>
+        <f t="shared" ref="L129" si="147">IF(J129="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M129" s="10">
@@ -32911,7 +32911,7 @@
         <v>13294</v>
       </c>
       <c r="Q129" s="10">
-        <f t="shared" ref="Q129" si="155">O129-P129</f>
+        <f t="shared" ref="Q129" si="148">O129-P129</f>
         <v>948</v>
       </c>
       <c r="R129">
@@ -32943,27 +32943,27 @@
         <v>176</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" si="148"/>
+        <f t="shared" si="141"/>
         <v>331</v>
       </c>
       <c r="H130" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="142"/>
         <v>-21</v>
       </c>
       <c r="I130" s="5">
-        <f t="shared" si="150"/>
+        <f t="shared" si="143"/>
         <v>21</v>
       </c>
       <c r="J130" s="10" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>AV</v>
       </c>
       <c r="K130" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="130"/>
         <v>129</v>
       </c>
       <c r="L130" s="10">
-        <f t="shared" ref="L130" si="156">IF(J130="SB",1,0)</f>
+        <f t="shared" ref="L130" si="149">IF(J130="SB",1,0)</f>
         <v>0</v>
       </c>
       <c r="M130" s="10">
@@ -32983,7 +32983,7 @@
         <v>13470</v>
       </c>
       <c r="Q130" s="10">
-        <f t="shared" ref="Q130" si="157">O130-P130</f>
+        <f t="shared" ref="Q130" si="150">O130-P130</f>
         <v>927</v>
       </c>
       <c r="R130">
@@ -33058,7 +33058,7 @@
   </sheetData>
   <autoFilter ref="W3:AD28" xr:uid="{F097C977-6B37-4FA8-BAF8-D2E77162F357}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W4:AD30">
-      <sortCondition ref="W3:W28"/>
+      <sortCondition descending="1" ref="AC3:AC28"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W51">
@@ -33073,7 +33073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A311C9BF-A298-4C26-979E-B2945331BCCC}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -34409,7 +34409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0E5786-3CD1-4087-BEA0-E7C92CFC16E7}">
   <dimension ref="A2:AH167"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
@@ -40821,10 +40821,10 @@
     <sortCondition ref="K7:K122"/>
   </sortState>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
